--- a/Outputs/4. Prosumer percentage constrained/Output Files/75/Output_1_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Output Files/75/Output_1_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1672965.212694327</v>
+        <v>1620990.031705291</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6471651.343166673</v>
+        <v>6471651.343166677</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>340528.8729729598</v>
+        <v>340528.8729729601</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +662,7 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>187.3791779741712</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
@@ -674,10 +674,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="H2" t="n">
-        <v>245.6299886580779</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>390.1527797502169</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>60.91717253786882</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -789,7 +789,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -801,7 +801,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X3" t="n">
-        <v>26.75142752077356</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>157.8079400398083</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>136.1769805884549</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -874,16 +874,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>213.5952110672386</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>345.1555666611307</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>237.263271331364</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>129.9460939324566</v>
       </c>
       <c r="C6" t="n">
         <v>132.6551205385437</v>
@@ -990,7 +990,7 @@
         <v>105.9202115588047</v>
       </c>
       <c r="H6" t="n">
-        <v>70.03974083464111</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>20.54110546596223</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>9.06801770978848</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>195.3773027531635</v>
@@ -1057,22 +1057,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>153.0251390105127</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>11.07374180647112</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>95.91799998392676</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1379,16 +1379,16 @@
         <v>379.0511185795227</v>
       </c>
       <c r="F11" t="n">
-        <v>385.6744131770998</v>
+        <v>385.6744131770997</v>
       </c>
       <c r="G11" t="n">
-        <v>373.4953065173466</v>
+        <v>373.4953065173465</v>
       </c>
       <c r="H11" t="n">
-        <v>276.6537176498097</v>
+        <v>276.6537176498096</v>
       </c>
       <c r="I11" t="n">
-        <v>54.34255030734804</v>
+        <v>54.34255030734802</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>102.7825697050906</v>
       </c>
       <c r="T11" t="n">
-        <v>188.8387244638593</v>
+        <v>188.8387244638602</v>
       </c>
       <c r="U11" t="n">
-        <v>223.3441920743355</v>
+        <v>223.3441920743354</v>
       </c>
       <c r="V11" t="n">
-        <v>315.1934843681346</v>
+        <v>315.1934843681345</v>
       </c>
       <c r="W11" t="n">
-        <v>348.7770031074336</v>
+        <v>348.7770031074335</v>
       </c>
       <c r="X11" t="n">
-        <v>365.4912691039875</v>
+        <v>365.4912691039874</v>
       </c>
       <c r="Y11" t="n">
-        <v>365.7816115726413</v>
+        <v>365.7816115726412</v>
       </c>
     </row>
     <row r="12">
@@ -1531,13 +1531,13 @@
         <v>138.2367439651511</v>
       </c>
       <c r="D13" t="n">
-        <v>126.7540034815696</v>
+        <v>126.7540034815695</v>
       </c>
       <c r="E13" t="n">
         <v>128.1560122316142</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G13" t="n">
         <v>134.4321924149625</v>
@@ -1546,7 +1546,7 @@
         <v>116.9656858938484</v>
       </c>
       <c r="I13" t="n">
-        <v>84.03689068796757</v>
+        <v>84.03689068796756</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,25 +1573,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>53.27429639260482</v>
+        <v>44.54396558125201</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.3821556901393</v>
       </c>
       <c r="T13" t="n">
         <v>206.0075568843154</v>
       </c>
       <c r="U13" t="n">
-        <v>248.8244712305876</v>
+        <v>248.8244712305875</v>
       </c>
       <c r="V13" t="n">
-        <v>240.0011928611237</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>76.80829622672817</v>
+        <v>245.1332730974648</v>
       </c>
       <c r="X13" t="n">
-        <v>204.8147287701639</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>276.6537176498097</v>
       </c>
       <c r="I14" t="n">
-        <v>54.34255030734803</v>
+        <v>54.34255030734804</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,7 +1664,7 @@
         <v>223.3441920743355</v>
       </c>
       <c r="V14" t="n">
-        <v>315.1934843681346</v>
+        <v>315.1934843681337</v>
       </c>
       <c r="W14" t="n">
         <v>348.7770031074336</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D16" t="n">
-        <v>87.37573700624952</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E16" t="n">
-        <v>128.1560122316142</v>
+        <v>63.31882517835628</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>53.27429639260481</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.3821556901393</v>
@@ -1831,7 +1831,7 @@
         <v>204.8147287701639</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.3426468763734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>379.0511185795227</v>
       </c>
       <c r="F17" t="n">
-        <v>385.6744131770997</v>
+        <v>385.6744131770998</v>
       </c>
       <c r="G17" t="n">
-        <v>373.4953065173465</v>
+        <v>373.4953065173466</v>
       </c>
       <c r="H17" t="n">
-        <v>276.6537176498096</v>
+        <v>276.6537176498097</v>
       </c>
       <c r="I17" t="n">
-        <v>54.34255030734798</v>
+        <v>54.34255030734804</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1898,19 +1898,19 @@
         <v>188.8387244638602</v>
       </c>
       <c r="U17" t="n">
-        <v>223.3441920743354</v>
+        <v>223.3441920743355</v>
       </c>
       <c r="V17" t="n">
-        <v>315.1934843681345</v>
+        <v>315.1934843681346</v>
       </c>
       <c r="W17" t="n">
-        <v>348.7770031074335</v>
+        <v>348.7770031074336</v>
       </c>
       <c r="X17" t="n">
-        <v>365.4912691039874</v>
+        <v>365.4912691039875</v>
       </c>
       <c r="Y17" t="n">
-        <v>365.7816115726412</v>
+        <v>365.7816115726413</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.6770145813543</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C19" t="n">
-        <v>138.236743965151</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>126.7540034815696</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>84.03689068796757</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>53.27429639260475</v>
+        <v>44.29308266711493</v>
       </c>
       <c r="S19" t="n">
-        <v>153.3821556901392</v>
+        <v>153.3821556901393</v>
       </c>
       <c r="T19" t="n">
-        <v>128.6255475756745</v>
+        <v>206.0075568843154</v>
       </c>
       <c r="U19" t="n">
-        <v>248.8244712305875</v>
+        <v>248.8244712305876</v>
       </c>
       <c r="V19" t="n">
         <v>240.0011928611237</v>
@@ -2065,10 +2065,10 @@
         <v>245.1332730974648</v>
       </c>
       <c r="X19" t="n">
-        <v>204.8147287701638</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>191.3426468763733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>276.6537176498096</v>
       </c>
       <c r="I20" t="n">
-        <v>54.34255030734798</v>
+        <v>54.34255030734802</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D22" t="n">
         <v>126.7540034815695</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G22" t="n">
-        <v>25.08635625505172</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H22" t="n">
-        <v>116.9656858938483</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>84.03689068796756</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>153.3821556901392</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>206.0075568843153</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>248.8244712305875</v>
       </c>
       <c r="V22" t="n">
-        <v>240.0011928611237</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>245.1332730974648</v>
       </c>
       <c r="X22" t="n">
-        <v>204.8147287701638</v>
+        <v>186.0700289295929</v>
       </c>
       <c r="Y22" t="n">
-        <v>191.3426468763733</v>
+        <v>191.3426468763734</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>276.6537176498096</v>
       </c>
       <c r="I23" t="n">
-        <v>54.34255030734798</v>
+        <v>54.34255030734802</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>154.6770145813543</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.236743965151</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>126.7540034815695</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>2.520439292533847</v>
+        <v>153.3821556901393</v>
       </c>
       <c r="T25" t="n">
-        <v>206.0075568843153</v>
+        <v>206.0075568843154</v>
       </c>
       <c r="U25" t="n">
         <v>248.8244712305875</v>
@@ -2539,10 +2539,10 @@
         <v>245.1332730974648</v>
       </c>
       <c r="X25" t="n">
-        <v>204.8147287701638</v>
+        <v>143.7820932670949</v>
       </c>
       <c r="Y25" t="n">
-        <v>191.3426468763733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>53.36691852307327</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>27.53873594270869</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2761,19 @@
         <v>54.92104941501635</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U28" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>206.4614817925755</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C29" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D29" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E29" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F29" t="n">
         <v>387.3211661995113</v>
@@ -2807,10 +2807,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U29" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V29" t="n">
         <v>316.8402373905461</v>
@@ -2855,7 +2855,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y29" t="n">
         <v>367.4283645950528</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E31" t="n">
         <v>129.8027652540257</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.8183653226842</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>55.25106908144407</v>
       </c>
       <c r="T31" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V31" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W31" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3032,19 +3032,19 @@
         <v>341.3399367874144</v>
       </c>
       <c r="D32" t="n">
-        <v>335.7358826154219</v>
+        <v>368.0271502510039</v>
       </c>
       <c r="E32" t="n">
-        <v>345.5134053358241</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>352.1366999334012</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>339.957593273648</v>
       </c>
       <c r="H32" t="n">
-        <v>243.1160044061111</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>20.80483706364944</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T32" t="n">
         <v>155.3010112201616</v>
@@ -3086,16 +3086,16 @@
         <v>189.8064788306369</v>
       </c>
       <c r="V32" t="n">
-        <v>313.9470387600186</v>
+        <v>281.655771124436</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>331.9535558602889</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>332.2438983289427</v>
       </c>
     </row>
     <row r="33">
@@ -3196,7 +3196,7 @@
         <v>94.61829898791559</v>
       </c>
       <c r="F34" t="n">
-        <v>98.30140663806652</v>
+        <v>98.30140663806651</v>
       </c>
       <c r="G34" t="n">
         <v>100.8944791712639</v>
@@ -3278,13 +3278,13 @@
         <v>352.1366999334012</v>
       </c>
       <c r="G35" t="n">
-        <v>339.957593273648</v>
+        <v>339.9575932736481</v>
       </c>
       <c r="H35" t="n">
         <v>243.1160044061111</v>
       </c>
       <c r="I35" t="n">
-        <v>20.80483706364944</v>
+        <v>20.80483706364949</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.24485646139202</v>
+        <v>69.24485646139206</v>
       </c>
       <c r="T35" t="n">
-        <v>155.3010112201616</v>
+        <v>155.3010112201617</v>
       </c>
       <c r="U35" t="n">
         <v>189.8064788306369</v>
@@ -3326,7 +3326,7 @@
         <v>281.655771124436</v>
       </c>
       <c r="W35" t="n">
-        <v>315.239289863735</v>
+        <v>315.2392898637351</v>
       </c>
       <c r="X35" t="n">
         <v>331.9535558602889</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>121.1393013376558</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C37" t="n">
-        <v>104.6990307214525</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D37" t="n">
-        <v>93.21629023787095</v>
+        <v>93.21629023787099</v>
       </c>
       <c r="E37" t="n">
-        <v>94.61829898791559</v>
+        <v>94.61829898791564</v>
       </c>
       <c r="F37" t="n">
-        <v>98.30140663806652</v>
+        <v>98.30140663806657</v>
       </c>
       <c r="G37" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H37" t="n">
-        <v>83.42797265014978</v>
+        <v>83.42797265014983</v>
       </c>
       <c r="I37" t="n">
-        <v>50.49917744426898</v>
+        <v>50.49917744426902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>19.73658314890622</v>
+        <v>19.73658314890626</v>
       </c>
       <c r="S37" t="n">
-        <v>119.8444424464407</v>
+        <v>119.8444424464408</v>
       </c>
       <c r="T37" t="n">
         <v>172.4698436406168</v>
@@ -3484,10 +3484,10 @@
         <v>206.4634796174252</v>
       </c>
       <c r="W37" t="n">
-        <v>211.5955598537662</v>
+        <v>211.5955598537663</v>
       </c>
       <c r="X37" t="n">
-        <v>171.2770155264653</v>
+        <v>171.2770155264654</v>
       </c>
       <c r="Y37" t="n">
         <v>157.8049336326748</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>341.4355598753964</v>
+        <v>341.4355598753965</v>
       </c>
       <c r="C38" t="n">
         <v>341.3399367874144</v>
@@ -3512,16 +3512,16 @@
         <v>345.5134053358241</v>
       </c>
       <c r="F38" t="n">
-        <v>352.1366999334011</v>
+        <v>352.1366999334012</v>
       </c>
       <c r="G38" t="n">
-        <v>339.9575932736479</v>
+        <v>339.957593273648</v>
       </c>
       <c r="H38" t="n">
-        <v>243.116004406111</v>
+        <v>243.1160044061111</v>
       </c>
       <c r="I38" t="n">
-        <v>20.80483706364942</v>
+        <v>20.80483706364944</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.24485646139199</v>
+        <v>69.24485646139202</v>
       </c>
       <c r="T38" t="n">
         <v>155.3010112201616</v>
       </c>
       <c r="U38" t="n">
-        <v>189.8064788306368</v>
+        <v>189.8064788306369</v>
       </c>
       <c r="V38" t="n">
-        <v>281.6557711244359</v>
+        <v>281.655771124436</v>
       </c>
       <c r="W38" t="n">
-        <v>315.2392898637349</v>
+        <v>315.239289863735</v>
       </c>
       <c r="X38" t="n">
-        <v>331.9535558602888</v>
+        <v>331.9535558602887</v>
       </c>
       <c r="Y38" t="n">
-        <v>332.2438983289426</v>
+        <v>332.2438983289427</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D40" t="n">
-        <v>93.21629023787092</v>
+        <v>93.21629023787095</v>
       </c>
       <c r="E40" t="n">
-        <v>94.61829898791557</v>
+        <v>94.61829898791559</v>
       </c>
       <c r="F40" t="n">
-        <v>98.3014066380665</v>
+        <v>98.30140663806652</v>
       </c>
       <c r="G40" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H40" t="n">
-        <v>83.42797265014975</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I40" t="n">
-        <v>50.49917744426895</v>
+        <v>50.49917744426898</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.73658314890619</v>
+        <v>19.73658314890622</v>
       </c>
       <c r="S40" t="n">
         <v>119.8444424464407</v>
@@ -3715,10 +3715,10 @@
         <v>172.4698436406168</v>
       </c>
       <c r="U40" t="n">
-        <v>215.2867579868889</v>
+        <v>215.286757986889</v>
       </c>
       <c r="V40" t="n">
-        <v>206.4634796174251</v>
+        <v>206.4634796174252</v>
       </c>
       <c r="W40" t="n">
         <v>211.5955598537662</v>
@@ -3901,7 +3901,7 @@
         <v>104.6990307214525</v>
       </c>
       <c r="D43" t="n">
-        <v>93.21629023787095</v>
+        <v>93.21629023787111</v>
       </c>
       <c r="E43" t="n">
         <v>94.61829898791559</v>
@@ -3913,7 +3913,7 @@
         <v>100.8944791712639</v>
       </c>
       <c r="H43" t="n">
-        <v>83.42797265014958</v>
+        <v>83.42797265014978</v>
       </c>
       <c r="I43" t="n">
         <v>50.49917744426898</v>
@@ -3995,7 +3995,7 @@
         <v>243.1160044061111</v>
       </c>
       <c r="I44" t="n">
-        <v>20.80483706364946</v>
+        <v>20.80483706364947</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>69.24485646139203</v>
+        <v>69.24485646139205</v>
       </c>
       <c r="T44" t="n">
         <v>155.3010112201617</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>121.1393013376558</v>
+        <v>121.1393013376559</v>
       </c>
       <c r="C46" t="n">
-        <v>104.6990307214525</v>
+        <v>104.6990307214526</v>
       </c>
       <c r="D46" t="n">
-        <v>93.21629023787096</v>
+        <v>93.21629023787098</v>
       </c>
       <c r="E46" t="n">
-        <v>94.61829898791561</v>
+        <v>94.61829898791562</v>
       </c>
       <c r="F46" t="n">
-        <v>98.30140663806654</v>
+        <v>98.30140663806655</v>
       </c>
       <c r="G46" t="n">
         <v>100.8944791712639</v>
       </c>
       <c r="H46" t="n">
-        <v>83.4279726501498</v>
+        <v>83.42797265014981</v>
       </c>
       <c r="I46" t="n">
-        <v>50.49917744426899</v>
+        <v>50.49917744426901</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.73658314890623</v>
+        <v>19.73658314890625</v>
       </c>
       <c r="S46" t="n">
         <v>119.8444424464407</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1170.670042511951</v>
+        <v>1025.055551251472</v>
       </c>
       <c r="C2" t="n">
-        <v>1164.585855865625</v>
+        <v>1018.971364605146</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.162329999089</v>
+        <v>829.6994676615386</v>
       </c>
       <c r="E2" t="n">
-        <v>1153.86251855639</v>
+        <v>819.3996562188394</v>
       </c>
       <c r="F2" t="n">
-        <v>759.7688016369793</v>
+        <v>425.3059392994284</v>
       </c>
       <c r="G2" t="n">
-        <v>365.6750847175683</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="H2" t="n">
-        <v>117.5639850629442</v>
+        <v>31.21222238001735</v>
       </c>
       <c r="I2" t="n">
         <v>31.21222238001735</v>
       </c>
       <c r="J2" t="n">
-        <v>31.21222238001735</v>
+        <v>285.3976938477716</v>
       </c>
       <c r="K2" t="n">
-        <v>417.4634743327321</v>
+        <v>671.6489458004863</v>
       </c>
       <c r="L2" t="n">
-        <v>788.1086150954382</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="M2" t="n">
-        <v>788.1086150954382</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="N2" t="n">
-        <v>1174.359867048153</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="O2" t="n">
-        <v>1560.611119000868</v>
+        <v>1057.900197753201</v>
       </c>
       <c r="P2" t="n">
-        <v>1560.611119000868</v>
+        <v>1444.151449705916</v>
       </c>
       <c r="Q2" t="n">
         <v>1560.611119000868</v>
@@ -4355,25 +4355,25 @@
         <v>1560.611119000868</v>
       </c>
       <c r="S2" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="T2" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="U2" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="V2" t="n">
-        <v>1560.611119000868</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="W2" t="n">
-        <v>1176.850818136036</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="X2" t="n">
-        <v>1176.850818136036</v>
+        <v>1425.330043794968</v>
       </c>
       <c r="Y2" t="n">
-        <v>1176.850818136036</v>
+        <v>1031.236326875557</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>482.5601355732184</v>
+        <v>528.6206107110008</v>
       </c>
       <c r="C3" t="n">
-        <v>348.5650643221641</v>
+        <v>528.6206107110008</v>
       </c>
       <c r="D3" t="n">
-        <v>231.6679065415565</v>
+        <v>411.7234529303933</v>
       </c>
       <c r="E3" t="n">
-        <v>231.6679065415565</v>
+        <v>291.2306369227213</v>
       </c>
       <c r="F3" t="n">
-        <v>122.7080267240611</v>
+        <v>229.6981394097224</v>
       </c>
       <c r="G3" t="n">
         <v>122.7080267240611</v>
@@ -4407,25 +4407,25 @@
         <v>31.21222238001735</v>
       </c>
       <c r="J3" t="n">
-        <v>31.21222238001735</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="K3" t="n">
-        <v>401.8573631427234</v>
+        <v>224.0250799426506</v>
       </c>
       <c r="L3" t="n">
-        <v>788.1086150954382</v>
+        <v>610.2763318953653</v>
       </c>
       <c r="M3" t="n">
-        <v>1174.359867048153</v>
+        <v>996.52758384808</v>
       </c>
       <c r="N3" t="n">
-        <v>1174.359867048153</v>
+        <v>996.52758384808</v>
       </c>
       <c r="O3" t="n">
-        <v>1174.359867048153</v>
+        <v>996.52758384808</v>
       </c>
       <c r="P3" t="n">
-        <v>1560.611119000868</v>
+        <v>1382.778835800795</v>
       </c>
       <c r="Q3" t="n">
         <v>1560.611119000868</v>
@@ -4437,22 +4437,22 @@
         <v>1452.621109115176</v>
       </c>
       <c r="T3" t="n">
-        <v>1293.279245302185</v>
+        <v>1452.621109115176</v>
       </c>
       <c r="U3" t="n">
-        <v>1095.928434440403</v>
+        <v>1255.270298253395</v>
       </c>
       <c r="V3" t="n">
-        <v>882.216907433437</v>
+        <v>1041.558771246429</v>
       </c>
       <c r="W3" t="n">
-        <v>668.9837391697657</v>
+        <v>828.3256029827575</v>
       </c>
       <c r="X3" t="n">
-        <v>641.9620952093884</v>
+        <v>828.3256029827575</v>
       </c>
       <c r="Y3" t="n">
-        <v>482.5601355732184</v>
+        <v>668.9236433465875</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31.21222238001735</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="C4" t="n">
-        <v>31.21222238001735</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="D4" t="n">
-        <v>31.21222238001735</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="E4" t="n">
-        <v>31.21222238001735</v>
+        <v>629.0472404340999</v>
       </c>
       <c r="F4" t="n">
-        <v>31.21222238001735</v>
+        <v>464.4161145446911</v>
       </c>
       <c r="G4" t="n">
-        <v>31.21222238001735</v>
+        <v>297.1657234702345</v>
       </c>
       <c r="H4" t="n">
-        <v>31.21222238001735</v>
+        <v>147.5582682756912</v>
       </c>
       <c r="I4" t="n">
         <v>31.21222238001735</v>
@@ -4510,28 +4510,28 @@
         <v>1560.611119000868</v>
       </c>
       <c r="R4" t="n">
-        <v>1560.611119000868</v>
+        <v>1475.338400676267</v>
       </c>
       <c r="S4" t="n">
-        <v>1560.611119000868</v>
+        <v>1288.946632556178</v>
       </c>
       <c r="T4" t="n">
-        <v>1321.06237997757</v>
+        <v>1049.39789353288</v>
       </c>
       <c r="U4" t="n">
-        <v>1038.264232523694</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="V4" t="n">
-        <v>764.3784874632158</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="W4" t="n">
-        <v>485.3088229720902</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="X4" t="n">
-        <v>246.9649608317736</v>
+        <v>766.5997460790038</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.21222238001735</v>
+        <v>766.5997460790038</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>479.4106276436875</v>
+        <v>1194.359529056374</v>
       </c>
       <c r="C5" t="n">
-        <v>473.3264409973617</v>
+        <v>1188.275342410048</v>
       </c>
       <c r="D5" t="n">
-        <v>68.86251109042225</v>
+        <v>1187.851816543512</v>
       </c>
       <c r="E5" t="n">
-        <v>58.56269964772302</v>
+        <v>1177.552005100813</v>
       </c>
       <c r="F5" t="n">
-        <v>41.57269164181463</v>
+        <v>756.5215930545007</v>
       </c>
       <c r="G5" t="n">
-        <v>36.88481157505088</v>
+        <v>347.7933089473329</v>
       </c>
       <c r="H5" t="n">
         <v>36.88481157505088</v>
@@ -4565,22 +4565,22 @@
         <v>36.88481157505088</v>
       </c>
       <c r="J5" t="n">
-        <v>36.88481157505088</v>
+        <v>153.7309422334881</v>
       </c>
       <c r="K5" t="n">
-        <v>493.3343548163056</v>
+        <v>153.7309422334881</v>
       </c>
       <c r="L5" t="n">
-        <v>949.7838980575602</v>
+        <v>153.7309422334881</v>
       </c>
       <c r="M5" t="n">
-        <v>949.7838980575602</v>
+        <v>153.7309422334881</v>
       </c>
       <c r="N5" t="n">
-        <v>1406.233441298815</v>
+        <v>610.1804854747427</v>
       </c>
       <c r="O5" t="n">
-        <v>1406.233441298815</v>
+        <v>1066.630028715997</v>
       </c>
       <c r="P5" t="n">
         <v>1523.079571957252</v>
@@ -4595,22 +4595,22 @@
         <v>1844.240578752544</v>
       </c>
       <c r="T5" t="n">
-        <v>1622.034094699403</v>
+        <v>1844.240578752544</v>
       </c>
       <c r="U5" t="n">
-        <v>1622.034094699403</v>
+        <v>1844.240578752544</v>
       </c>
       <c r="V5" t="n">
-        <v>1273.392108173008</v>
+        <v>1844.240578752544</v>
       </c>
       <c r="W5" t="n">
-        <v>889.631807308177</v>
+        <v>1604.580708720863</v>
       </c>
       <c r="X5" t="n">
-        <v>889.631807308177</v>
+        <v>1604.580708720863</v>
       </c>
       <c r="Y5" t="n">
-        <v>889.631807308177</v>
+        <v>1604.580708720863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>715.7156534615854</v>
+        <v>644.9684404973013</v>
       </c>
       <c r="C6" t="n">
-        <v>581.720582210531</v>
+        <v>510.973369246247</v>
       </c>
       <c r="D6" t="n">
-        <v>464.8234244299234</v>
+        <v>394.0762114656394</v>
       </c>
       <c r="E6" t="n">
-        <v>344.3306084222514</v>
+        <v>273.5833954579674</v>
       </c>
       <c r="F6" t="n">
-        <v>235.370728604756</v>
+        <v>164.623515640472</v>
       </c>
       <c r="G6" t="n">
-        <v>128.3806159190947</v>
+        <v>57.63340295481071</v>
       </c>
       <c r="H6" t="n">
         <v>57.63340295481071</v>
@@ -4647,22 +4647,22 @@
         <v>229.6976691376841</v>
       </c>
       <c r="K6" t="n">
-        <v>685.5039254029829</v>
+        <v>685.5039254029828</v>
       </c>
       <c r="L6" t="n">
-        <v>1141.953468644238</v>
+        <v>1008.387051464676</v>
       </c>
       <c r="M6" t="n">
-        <v>1141.953468644238</v>
+        <v>1008.387051464676</v>
       </c>
       <c r="N6" t="n">
-        <v>1141.953468644238</v>
+        <v>1008.387051464676</v>
       </c>
       <c r="O6" t="n">
-        <v>1358.231516148659</v>
+        <v>1008.387051464676</v>
       </c>
       <c r="P6" t="n">
-        <v>1814.681059389914</v>
+        <v>1464.836594705931</v>
       </c>
       <c r="Q6" t="n">
         <v>1814.681059389914</v>
@@ -4671,25 +4671,25 @@
         <v>1844.240578752544</v>
       </c>
       <c r="S6" t="n">
-        <v>1835.080964904273</v>
+        <v>1736.250568866853</v>
       </c>
       <c r="T6" t="n">
-        <v>1675.739101091281</v>
+        <v>1736.250568866853</v>
       </c>
       <c r="U6" t="n">
-        <v>1478.3882902295</v>
+        <v>1538.899758005071</v>
       </c>
       <c r="V6" t="n">
-        <v>1264.676763222534</v>
+        <v>1325.188230998105</v>
       </c>
       <c r="W6" t="n">
-        <v>1051.443594958863</v>
+        <v>1111.955062734434</v>
       </c>
       <c r="X6" t="n">
-        <v>875.1176130977553</v>
+        <v>935.6290808733265</v>
       </c>
       <c r="Y6" t="n">
-        <v>715.7156534615854</v>
+        <v>776.2271212371566</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>207.9781840133344</v>
+        <v>1126.218661876188</v>
       </c>
       <c r="C7" t="n">
-        <v>36.88481157505088</v>
+        <v>955.125289437904</v>
       </c>
       <c r="D7" t="n">
-        <v>36.88481157505088</v>
+        <v>795.630644760814</v>
       </c>
       <c r="E7" t="n">
-        <v>36.88481157505088</v>
+        <v>634.7198296291334</v>
       </c>
       <c r="F7" t="n">
-        <v>36.88481157505088</v>
+        <v>470.0887037397247</v>
       </c>
       <c r="G7" t="n">
-        <v>36.88481157505088</v>
+        <v>302.8383126652681</v>
       </c>
       <c r="H7" t="n">
-        <v>36.88481157505088</v>
+        <v>153.2308574707247</v>
       </c>
       <c r="I7" t="n">
         <v>36.88481157505088</v>
@@ -4756,19 +4756,19 @@
         <v>1566.283708195901</v>
       </c>
       <c r="U7" t="n">
-        <v>1411.712860710534</v>
+        <v>1566.283708195901</v>
       </c>
       <c r="V7" t="n">
-        <v>1137.827115650056</v>
+        <v>1566.283708195901</v>
       </c>
       <c r="W7" t="n">
-        <v>858.7574511589307</v>
+        <v>1566.283708195901</v>
       </c>
       <c r="X7" t="n">
-        <v>620.4135890186141</v>
+        <v>1538.654066881467</v>
       </c>
       <c r="Y7" t="n">
-        <v>395.6778904073788</v>
+        <v>1313.918368270232</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1066.882057025439</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C8" t="n">
-        <v>1060.797870379113</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D8" t="n">
-        <v>656.3339404721737</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E8" t="n">
-        <v>646.0341290294745</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F8" t="n">
-        <v>225.003716983162</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="N8" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>1571.411346813777</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1473.706230480572</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="X8" t="n">
-        <v>1073.062832649525</v>
+        <v>1704.493980615271</v>
       </c>
       <c r="Y8" t="n">
-        <v>1073.062832649525</v>
+        <v>1303.557307563361</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="L9" t="n">
-        <v>537.7254774811266</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="M9" t="n">
-        <v>537.7254774811266</v>
+        <v>187.8810127971431</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147452</v>
+        <v>704.7239474634683</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1221.566882129794</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.409816796119</v>
       </c>
       <c r="Q9" t="n">
         <v>2088.254281480102</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2328.460105825246</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.795812864525</v>
+        <v>1949.795812864524</v>
       </c>
       <c r="D11" t="n">
-        <v>1576.792180683595</v>
+        <v>1576.792180683594</v>
       </c>
       <c r="E11" t="n">
-        <v>1193.912262926502</v>
+        <v>1193.912262926501</v>
       </c>
       <c r="F11" t="n">
         <v>804.3421486061984</v>
@@ -5039,25 +5039,25 @@
         <v>92.7344976218499</v>
       </c>
       <c r="J11" t="n">
-        <v>321.9691657197314</v>
+        <v>346.9199690896042</v>
       </c>
       <c r="K11" t="n">
-        <v>860.128666828771</v>
+        <v>885.0794701986438</v>
       </c>
       <c r="L11" t="n">
-        <v>1572.720066641009</v>
+        <v>1597.670870010882</v>
       </c>
       <c r="M11" t="n">
-        <v>2349.038657632763</v>
+        <v>2373.989461002636</v>
       </c>
       <c r="N11" t="n">
-        <v>3102.219674271381</v>
+        <v>3127.170477641254</v>
       </c>
       <c r="O11" t="n">
-        <v>3745.850530688486</v>
+        <v>3770.801334058359</v>
       </c>
       <c r="P11" t="n">
-        <v>4275.007228607637</v>
+        <v>4299.95803197751</v>
       </c>
       <c r="Q11" t="n">
         <v>4596.16823540293</v>
@@ -5072,19 +5072,19 @@
         <v>4342.157917285474</v>
       </c>
       <c r="U11" t="n">
-        <v>4116.557723270995</v>
+        <v>4116.557723270994</v>
       </c>
       <c r="V11" t="n">
-        <v>3798.180466333485</v>
+        <v>3798.180466333484</v>
       </c>
       <c r="W11" t="n">
-        <v>3445.880463194663</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X11" t="n">
         <v>3076.697363089625</v>
       </c>
       <c r="Y11" t="n">
-        <v>2707.220987763726</v>
+        <v>2707.220987763724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,10 +5121,10 @@
         <v>92.7344976218499</v>
       </c>
       <c r="K12" t="n">
-        <v>92.7344976218499</v>
+        <v>548.5407538871486</v>
       </c>
       <c r="L12" t="n">
-        <v>422.5885206661656</v>
+        <v>1209.628925806437</v>
       </c>
       <c r="M12" t="n">
         <v>1265.565601360732</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>828.6754356775199</v>
+        <v>961.8462638409189</v>
       </c>
       <c r="C13" t="n">
-        <v>689.042360965246</v>
+        <v>822.213189128645</v>
       </c>
       <c r="D13" t="n">
-        <v>561.0080140141656</v>
+        <v>694.1788421775647</v>
       </c>
       <c r="E13" t="n">
-        <v>431.5574966084947</v>
+        <v>564.7283247718938</v>
       </c>
       <c r="F13" t="n">
         <v>431.5574966084947</v>
       </c>
       <c r="G13" t="n">
-        <v>295.7674032600477</v>
+        <v>295.7674032600478</v>
       </c>
       <c r="H13" t="n">
-        <v>177.620245791514</v>
+        <v>177.6202457915141</v>
       </c>
       <c r="I13" t="n">
         <v>92.7344976218499</v>
       </c>
       <c r="J13" t="n">
-        <v>137.6512848283224</v>
+        <v>137.6512848283225</v>
       </c>
       <c r="K13" t="n">
-        <v>323.0378503518224</v>
+        <v>323.0378503518225</v>
       </c>
       <c r="L13" t="n">
-        <v>613.769188433145</v>
+        <v>613.7691884331451</v>
       </c>
       <c r="M13" t="n">
-        <v>933.8674826749003</v>
+        <v>933.8674826749004</v>
       </c>
       <c r="N13" t="n">
         <v>1245.540502870413</v>
@@ -5221,28 +5221,28 @@
         <v>1868.807296652796</v>
       </c>
       <c r="R13" t="n">
-        <v>1814.994876054205</v>
+        <v>1823.813392025269</v>
       </c>
       <c r="S13" t="n">
-        <v>1814.994876054205</v>
+        <v>1668.881921631189</v>
       </c>
       <c r="T13" t="n">
-        <v>1606.906434756917</v>
+        <v>1460.793480333901</v>
       </c>
       <c r="U13" t="n">
-        <v>1355.568585029051</v>
+        <v>1209.455630606035</v>
       </c>
       <c r="V13" t="n">
-        <v>1113.143137694582</v>
+        <v>1209.455630606035</v>
       </c>
       <c r="W13" t="n">
-        <v>1035.559000091827</v>
+        <v>961.8462638409189</v>
       </c>
       <c r="X13" t="n">
-        <v>828.6754356775199</v>
+        <v>961.8462638409189</v>
       </c>
       <c r="Y13" t="n">
-        <v>828.6754356775199</v>
+        <v>961.8462638409189</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2328.460105825245</v>
+        <v>2328.460105825244</v>
       </c>
       <c r="C14" t="n">
         <v>1949.795812864524</v>
@@ -5264,10 +5264,10 @@
         <v>1193.9122629265</v>
       </c>
       <c r="F14" t="n">
-        <v>804.3421486061976</v>
+        <v>804.3421486061977</v>
       </c>
       <c r="G14" t="n">
-        <v>427.0741622250393</v>
+        <v>427.0741622250395</v>
       </c>
       <c r="H14" t="n">
         <v>147.6259625787671</v>
@@ -5279,19 +5279,19 @@
         <v>346.9199690896042</v>
       </c>
       <c r="K14" t="n">
-        <v>860.128666828771</v>
+        <v>885.0794701986438</v>
       </c>
       <c r="L14" t="n">
-        <v>1572.720066641009</v>
+        <v>1597.670870010882</v>
       </c>
       <c r="M14" t="n">
-        <v>2349.038657632763</v>
+        <v>2373.989461002636</v>
       </c>
       <c r="N14" t="n">
-        <v>3102.219674271381</v>
+        <v>3127.170477641254</v>
       </c>
       <c r="O14" t="n">
-        <v>3745.850530688486</v>
+        <v>3770.801334058359</v>
       </c>
       <c r="P14" t="n">
         <v>4275.007228607637</v>
@@ -5309,19 +5309,19 @@
         <v>4342.157917285474</v>
       </c>
       <c r="U14" t="n">
-        <v>4116.557723270994</v>
+        <v>4116.557723270993</v>
       </c>
       <c r="V14" t="n">
-        <v>3798.180466333485</v>
+        <v>3798.180466333484</v>
       </c>
       <c r="W14" t="n">
-        <v>3445.880463194663</v>
+        <v>3445.880463194662</v>
       </c>
       <c r="X14" t="n">
         <v>3076.697363089625</v>
       </c>
       <c r="Y14" t="n">
-        <v>2707.220987763725</v>
+        <v>2707.220987763724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>92.7344976218499</v>
       </c>
       <c r="J15" t="n">
-        <v>285.5473551844831</v>
+        <v>92.7344976218499</v>
       </c>
       <c r="K15" t="n">
-        <v>285.5473551844831</v>
+        <v>92.7344976218499</v>
       </c>
       <c r="L15" t="n">
-        <v>285.5473551844831</v>
+        <v>92.7344976218499</v>
       </c>
       <c r="M15" t="n">
-        <v>285.5473551844831</v>
+        <v>92.7344976218499</v>
       </c>
       <c r="N15" t="n">
-        <v>494.1567263913123</v>
+        <v>873.5607104379258</v>
       </c>
       <c r="O15" t="n">
-        <v>1198.113816937207</v>
+        <v>1577.51780098382</v>
       </c>
       <c r="P15" t="n">
-        <v>1759.819709425737</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.66417410972</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="R15" t="n">
         <v>2139.22369347235</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>310.4433352358535</v>
+        <v>557.5311567196696</v>
       </c>
       <c r="C16" t="n">
-        <v>310.4433352358535</v>
+        <v>417.8980820073958</v>
       </c>
       <c r="D16" t="n">
-        <v>222.1850150275208</v>
+        <v>289.8637350563155</v>
       </c>
       <c r="E16" t="n">
-        <v>92.7344976218499</v>
+        <v>225.905325785249</v>
       </c>
       <c r="F16" t="n">
         <v>92.7344976218499</v>
@@ -5437,13 +5437,13 @@
         <v>137.6512848283224</v>
       </c>
       <c r="K16" t="n">
-        <v>323.0378503518225</v>
+        <v>323.0378503518224</v>
       </c>
       <c r="L16" t="n">
         <v>613.769188433145</v>
       </c>
       <c r="M16" t="n">
-        <v>933.8674826749004</v>
+        <v>933.8674826749003</v>
       </c>
       <c r="N16" t="n">
         <v>1245.540502870413</v>
@@ -5458,28 +5458,28 @@
         <v>1868.807296652796</v>
       </c>
       <c r="R16" t="n">
-        <v>1814.994876054205</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="S16" t="n">
-        <v>1660.063405660125</v>
+        <v>1713.875826258716</v>
       </c>
       <c r="T16" t="n">
-        <v>1451.974964362837</v>
+        <v>1505.787384961428</v>
       </c>
       <c r="U16" t="n">
-        <v>1200.637114634971</v>
+        <v>1254.449535233561</v>
       </c>
       <c r="V16" t="n">
-        <v>958.2116673005022</v>
+        <v>1012.024087899093</v>
       </c>
       <c r="W16" t="n">
-        <v>710.6023005353861</v>
+        <v>764.4147211339766</v>
       </c>
       <c r="X16" t="n">
-        <v>503.7187361210791</v>
+        <v>557.5311567196696</v>
       </c>
       <c r="Y16" t="n">
-        <v>310.4433352358535</v>
+        <v>557.5311567196696</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2328.460105825244</v>
+        <v>2328.460105825245</v>
       </c>
       <c r="C17" t="n">
         <v>1949.795812864524</v>
@@ -5498,13 +5498,13 @@
         <v>1576.792180683594</v>
       </c>
       <c r="E17" t="n">
-        <v>1193.912262926501</v>
+        <v>1193.9122629265</v>
       </c>
       <c r="F17" t="n">
-        <v>804.342148606198</v>
+        <v>804.3421486061977</v>
       </c>
       <c r="G17" t="n">
-        <v>427.0741622250398</v>
+        <v>427.0741622250395</v>
       </c>
       <c r="H17" t="n">
         <v>147.6259625787671</v>
@@ -5513,28 +5513,28 @@
         <v>92.7344976218499</v>
       </c>
       <c r="J17" t="n">
-        <v>321.9691657197314</v>
+        <v>346.9199690896042</v>
       </c>
       <c r="K17" t="n">
-        <v>860.128666828771</v>
+        <v>885.0794701986438</v>
       </c>
       <c r="L17" t="n">
-        <v>1572.720066641009</v>
+        <v>1597.670870010882</v>
       </c>
       <c r="M17" t="n">
-        <v>2349.038657632763</v>
+        <v>2373.989461002636</v>
       </c>
       <c r="N17" t="n">
-        <v>3102.219674271381</v>
+        <v>3127.170477641254</v>
       </c>
       <c r="O17" t="n">
-        <v>3745.850530688486</v>
+        <v>3770.801334058359</v>
       </c>
       <c r="P17" t="n">
-        <v>4275.007228607637</v>
+        <v>4299.95803197751</v>
       </c>
       <c r="Q17" t="n">
-        <v>4596.16823540293</v>
+        <v>4621.119038772802</v>
       </c>
       <c r="R17" t="n">
         <v>4636.724881092495</v>
@@ -5595,25 +5595,25 @@
         <v>92.7344976218499</v>
       </c>
       <c r="K18" t="n">
-        <v>548.5407538871486</v>
+        <v>92.7344976218499</v>
       </c>
       <c r="L18" t="n">
-        <v>1209.628925806437</v>
+        <v>753.8226695411381</v>
       </c>
       <c r="M18" t="n">
-        <v>1209.628925806437</v>
+        <v>1596.799750235705</v>
       </c>
       <c r="N18" t="n">
-        <v>1209.628925806437</v>
+        <v>1789.379228788367</v>
       </c>
       <c r="O18" t="n">
-        <v>1209.628925806437</v>
+        <v>1789.379228788367</v>
       </c>
       <c r="P18" t="n">
-        <v>1771.334818294967</v>
+        <v>1789.379228788367</v>
       </c>
       <c r="Q18" t="n">
-        <v>2121.17928297895</v>
+        <v>2139.22369347235</v>
       </c>
       <c r="R18" t="n">
         <v>2139.22369347235</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>232.3675723341237</v>
+        <v>563.4348249234022</v>
       </c>
       <c r="C19" t="n">
-        <v>92.7344976218499</v>
+        <v>423.8017502111283</v>
       </c>
       <c r="D19" t="n">
-        <v>92.7344976218499</v>
+        <v>295.7674032600478</v>
       </c>
       <c r="E19" t="n">
-        <v>92.7344976218499</v>
+        <v>295.7674032600478</v>
       </c>
       <c r="F19" t="n">
-        <v>92.7344976218499</v>
+        <v>295.7674032600478</v>
       </c>
       <c r="G19" t="n">
-        <v>92.7344976218499</v>
+        <v>295.7674032600478</v>
       </c>
       <c r="H19" t="n">
-        <v>92.7344976218499</v>
+        <v>177.6202457915141</v>
       </c>
       <c r="I19" t="n">
         <v>92.7344976218499</v>
       </c>
       <c r="J19" t="n">
-        <v>137.6512848283225</v>
+        <v>137.6512848283224</v>
       </c>
       <c r="K19" t="n">
-        <v>323.0378503518226</v>
+        <v>323.0378503518224</v>
       </c>
       <c r="L19" t="n">
-        <v>613.7691884331452</v>
+        <v>613.769188433145</v>
       </c>
       <c r="M19" t="n">
-        <v>933.8674826749007</v>
+        <v>933.8674826749003</v>
       </c>
       <c r="N19" t="n">
         <v>1245.540502870413</v>
@@ -5689,34 +5689,34 @@
         <v>1535.935350998149</v>
       </c>
       <c r="P19" t="n">
-        <v>1772.445029049024</v>
+        <v>1772.445029049023</v>
       </c>
       <c r="Q19" t="n">
-        <v>1868.807296652797</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="R19" t="n">
-        <v>1814.994876054206</v>
+        <v>1824.066809110256</v>
       </c>
       <c r="S19" t="n">
-        <v>1660.063405660126</v>
+        <v>1669.135338716176</v>
       </c>
       <c r="T19" t="n">
-        <v>1530.138610129141</v>
+        <v>1461.046897418888</v>
       </c>
       <c r="U19" t="n">
-        <v>1278.800760401275</v>
+        <v>1209.709047691021</v>
       </c>
       <c r="V19" t="n">
-        <v>1036.375313066807</v>
+        <v>967.2836003565529</v>
       </c>
       <c r="W19" t="n">
-        <v>788.765946301691</v>
+        <v>719.674233591437</v>
       </c>
       <c r="X19" t="n">
-        <v>581.882381887384</v>
+        <v>719.674233591437</v>
       </c>
       <c r="Y19" t="n">
-        <v>388.6069810021584</v>
+        <v>719.674233591437</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1193.912262926501</v>
       </c>
       <c r="F20" t="n">
-        <v>804.342148606198</v>
+        <v>804.3421486061984</v>
       </c>
       <c r="G20" t="n">
-        <v>427.0741622250398</v>
+        <v>427.0741622250395</v>
       </c>
       <c r="H20" t="n">
         <v>147.6259625787671</v>
@@ -5750,16 +5750,16 @@
         <v>92.7344976218499</v>
       </c>
       <c r="J20" t="n">
-        <v>321.9691657197314</v>
+        <v>346.9199690896042</v>
       </c>
       <c r="K20" t="n">
-        <v>860.128666828771</v>
+        <v>885.0794701986438</v>
       </c>
       <c r="L20" t="n">
-        <v>1572.720066641009</v>
+        <v>1597.670870010882</v>
       </c>
       <c r="M20" t="n">
-        <v>2349.038657632763</v>
+        <v>2373.989461002636</v>
       </c>
       <c r="N20" t="n">
         <v>3102.219674271381</v>
@@ -5783,13 +5783,13 @@
         <v>4342.157917285474</v>
       </c>
       <c r="U20" t="n">
-        <v>4116.557723270994</v>
+        <v>4116.557723270993</v>
       </c>
       <c r="V20" t="n">
-        <v>3798.180466333484</v>
+        <v>3798.180466333483</v>
       </c>
       <c r="W20" t="n">
-        <v>3445.880463194662</v>
+        <v>3445.880463194661</v>
       </c>
       <c r="X20" t="n">
         <v>3076.697363089625</v>
@@ -5832,19 +5832,19 @@
         <v>92.7344976218499</v>
       </c>
       <c r="K21" t="n">
-        <v>92.7344976218499</v>
+        <v>548.5407538871486</v>
       </c>
       <c r="L21" t="n">
-        <v>92.7344976218499</v>
+        <v>1209.628925806437</v>
       </c>
       <c r="M21" t="n">
-        <v>935.7115783164165</v>
+        <v>1577.51780098382</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.369670428034</v>
+        <v>1577.51780098382</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.22369347235</v>
+        <v>1577.51780098382</v>
       </c>
       <c r="P21" t="n">
         <v>2139.22369347235</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.2557558344455</v>
+        <v>832.3957464352479</v>
       </c>
       <c r="C22" t="n">
-        <v>364.2557558344455</v>
+        <v>692.7626717229741</v>
       </c>
       <c r="D22" t="n">
-        <v>236.2214088833651</v>
+        <v>564.7283247718938</v>
       </c>
       <c r="E22" t="n">
-        <v>236.2214088833651</v>
+        <v>564.7283247718938</v>
       </c>
       <c r="F22" t="n">
-        <v>236.2214088833651</v>
+        <v>431.5574966084947</v>
       </c>
       <c r="G22" t="n">
-        <v>210.8816550903836</v>
+        <v>295.7674032600478</v>
       </c>
       <c r="H22" t="n">
-        <v>92.7344976218499</v>
+        <v>177.6202457915141</v>
       </c>
       <c r="I22" t="n">
         <v>92.7344976218499</v>
       </c>
       <c r="J22" t="n">
-        <v>137.6512848283226</v>
+        <v>137.6512848283225</v>
       </c>
       <c r="K22" t="n">
-        <v>323.0378503518227</v>
+        <v>323.0378503518225</v>
       </c>
       <c r="L22" t="n">
-        <v>613.7691884331452</v>
+        <v>613.7691884331451</v>
       </c>
       <c r="M22" t="n">
-        <v>933.8674826749008</v>
+        <v>933.8674826749004</v>
       </c>
       <c r="N22" t="n">
         <v>1245.540502870413</v>
@@ -5926,34 +5926,34 @@
         <v>1535.935350998149</v>
       </c>
       <c r="P22" t="n">
-        <v>1772.445029049024</v>
+        <v>1772.445029049023</v>
       </c>
       <c r="Q22" t="n">
-        <v>1868.807296652797</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="R22" t="n">
-        <v>1868.807296652797</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="S22" t="n">
-        <v>1713.875826258717</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="T22" t="n">
-        <v>1505.787384961428</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="U22" t="n">
-        <v>1254.449535233562</v>
+        <v>1617.46944692493</v>
       </c>
       <c r="V22" t="n">
-        <v>1012.024087899094</v>
+        <v>1617.46944692493</v>
       </c>
       <c r="W22" t="n">
-        <v>764.414721133978</v>
+        <v>1369.860080159814</v>
       </c>
       <c r="X22" t="n">
-        <v>557.5311567196711</v>
+        <v>1181.910555988508</v>
       </c>
       <c r="Y22" t="n">
-        <v>364.2557558344455</v>
+        <v>988.6351551032826</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1193.9122629265</v>
       </c>
       <c r="F23" t="n">
-        <v>804.342148606198</v>
+        <v>804.3421486061973</v>
       </c>
       <c r="G23" t="n">
         <v>427.0741622250393</v>
@@ -5993,19 +5993,19 @@
         <v>885.0794701986438</v>
       </c>
       <c r="L23" t="n">
-        <v>1597.670870010882</v>
+        <v>1572.720066641009</v>
       </c>
       <c r="M23" t="n">
-        <v>2373.989461002636</v>
+        <v>2349.038657632763</v>
       </c>
       <c r="N23" t="n">
-        <v>3127.170477641254</v>
+        <v>3102.219674271381</v>
       </c>
       <c r="O23" t="n">
-        <v>3770.801334058359</v>
+        <v>3745.850530688486</v>
       </c>
       <c r="P23" t="n">
-        <v>4299.95803197751</v>
+        <v>4275.007228607637</v>
       </c>
       <c r="Q23" t="n">
         <v>4596.16823540293</v>
@@ -6020,7 +6020,7 @@
         <v>4342.157917285474</v>
       </c>
       <c r="U23" t="n">
-        <v>4116.557723270994</v>
+        <v>4116.557723270993</v>
       </c>
       <c r="V23" t="n">
         <v>3798.180466333484</v>
@@ -6032,7 +6032,7 @@
         <v>3076.697363089624</v>
       </c>
       <c r="Y23" t="n">
-        <v>2707.220987763724</v>
+        <v>2707.220987763723</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>92.7344976218499</v>
       </c>
       <c r="J24" t="n">
-        <v>92.7344976218499</v>
+        <v>285.5473551844831</v>
       </c>
       <c r="K24" t="n">
-        <v>92.7344976218499</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="L24" t="n">
-        <v>92.7344976218499</v>
+        <v>741.3536114497819</v>
       </c>
       <c r="M24" t="n">
-        <v>561.6085108148379</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.266602926456</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.22369347235</v>
+        <v>1198.113816937207</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.22369347235</v>
+        <v>1759.819709425737</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.22369347235</v>
+        <v>2109.66417410972</v>
       </c>
       <c r="R24" t="n">
         <v>2139.22369347235</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.401919285204</v>
+        <v>619.1802834904471</v>
       </c>
       <c r="C25" t="n">
-        <v>220.7688445729302</v>
+        <v>619.1802834904471</v>
       </c>
       <c r="D25" t="n">
-        <v>92.7344976218499</v>
+        <v>491.1459365393669</v>
       </c>
       <c r="E25" t="n">
-        <v>92.7344976218499</v>
+        <v>361.695419133696</v>
       </c>
       <c r="F25" t="n">
-        <v>92.7344976218499</v>
+        <v>228.5245909702968</v>
       </c>
       <c r="G25" t="n">
         <v>92.7344976218499</v>
@@ -6145,16 +6145,16 @@
         <v>92.7344976218499</v>
       </c>
       <c r="J25" t="n">
-        <v>137.6512848283226</v>
+        <v>137.6512848283224</v>
       </c>
       <c r="K25" t="n">
-        <v>323.0378503518226</v>
+        <v>323.0378503518224</v>
       </c>
       <c r="L25" t="n">
-        <v>613.7691884331452</v>
+        <v>613.769188433145</v>
       </c>
       <c r="M25" t="n">
-        <v>933.8674826749007</v>
+        <v>933.8674826749004</v>
       </c>
       <c r="N25" t="n">
         <v>1245.540502870413</v>
@@ -6163,34 +6163,34 @@
         <v>1535.935350998149</v>
       </c>
       <c r="P25" t="n">
-        <v>1772.445029049024</v>
+        <v>1772.445029049023</v>
       </c>
       <c r="Q25" t="n">
-        <v>1868.807296652797</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="R25" t="n">
-        <v>1868.807296652797</v>
+        <v>1868.807296652796</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.26139837751</v>
+        <v>1713.875826258716</v>
       </c>
       <c r="T25" t="n">
-        <v>1658.172957080222</v>
+        <v>1505.787384961428</v>
       </c>
       <c r="U25" t="n">
-        <v>1406.835107352356</v>
+        <v>1254.449535233562</v>
       </c>
       <c r="V25" t="n">
-        <v>1164.409660017887</v>
+        <v>1012.024087899093</v>
       </c>
       <c r="W25" t="n">
-        <v>916.8002932527713</v>
+        <v>764.4147211339773</v>
       </c>
       <c r="X25" t="n">
-        <v>709.9167288384643</v>
+        <v>619.1802834904471</v>
       </c>
       <c r="Y25" t="n">
-        <v>516.6413279532387</v>
+        <v>619.1802834904471</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6251,22 +6251,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4556.700720159926</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4364.29114694147</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
         <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
         <v>2721.037282963096</v>
@@ -6306,19 +6306,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>966.9017898022406</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O27" t="n">
-        <v>1670.858880348135</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>284.6031562365289</v>
+        <v>785.5692082382066</v>
       </c>
       <c r="C28" t="n">
-        <v>284.6031562365289</v>
+        <v>644.2727466346079</v>
       </c>
       <c r="D28" t="n">
-        <v>230.6971779303946</v>
+        <v>644.2727466346079</v>
       </c>
       <c r="E28" t="n">
-        <v>230.6971779303946</v>
+        <v>513.1588423376122</v>
       </c>
       <c r="F28" t="n">
-        <v>230.6971779303946</v>
+        <v>378.3246272828883</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>240.8711470431166</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>121.0606026832581</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362207</v>
       </c>
       <c r="L28" t="n">
-        <v>609.3875320253558</v>
+        <v>609.387532025356</v>
       </c>
       <c r="M28" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N28" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O28" t="n">
         <v>1526.662838113797</v>
@@ -6409,25 +6409,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="V28" t="n">
-        <v>937.361648975152</v>
+        <v>1346.957742879748</v>
       </c>
       <c r="W28" t="n">
-        <v>688.0888953187111</v>
+        <v>1346.957742879748</v>
       </c>
       <c r="X28" t="n">
-        <v>479.5419440130794</v>
+        <v>1138.410791574117</v>
       </c>
       <c r="Y28" t="n">
-        <v>284.6031562365289</v>
+        <v>943.4720037975661</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C29" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
         <v>1585.618315208991</v>
@@ -6452,10 +6452,10 @@
         <v>809.8415093489452</v>
       </c>
       <c r="G29" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6497,7 +6497,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V29" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
         <v>3463.023532176683</v>
@@ -6506,7 +6506,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6549,13 +6549,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M30" t="n">
-        <v>93.2436976906228</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N30" t="n">
-        <v>966.9017898022406</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O30" t="n">
-        <v>1670.858880348135</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>365.6540635912171</v>
+        <v>491.5088160697952</v>
       </c>
       <c r="C31" t="n">
-        <v>224.3576019876185</v>
+        <v>491.5088160697952</v>
       </c>
       <c r="D31" t="n">
-        <v>224.3576019876185</v>
+        <v>361.8110822273901</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303944</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>230.6971779303944</v>
       </c>
       <c r="G31" t="n">
         <v>93.2436976906228</v>
@@ -6619,22 +6619,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K31" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253557</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N31" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O31" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P31" t="n">
         <v>1761.542230672484</v>
@@ -6643,28 +6643,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1831.20515690257</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.610299617165</v>
+        <v>1800.465052095743</v>
       </c>
       <c r="T31" t="n">
-        <v>1464.858471428552</v>
+        <v>1590.71322390713</v>
       </c>
       <c r="U31" t="n">
-        <v>1211.857234809361</v>
+        <v>1337.711987287939</v>
       </c>
       <c r="V31" t="n">
-        <v>967.7684005835681</v>
+        <v>1093.623153062146</v>
       </c>
       <c r="W31" t="n">
-        <v>718.4956469271272</v>
+        <v>844.3503994057049</v>
       </c>
       <c r="X31" t="n">
-        <v>718.4956469271272</v>
+        <v>844.3503994057049</v>
       </c>
       <c r="Y31" t="n">
-        <v>523.5568591505767</v>
+        <v>649.4116116291545</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2086.9536856719</v>
+        <v>2315.581454977887</v>
       </c>
       <c r="C32" t="n">
-        <v>1742.165870735118</v>
+        <v>1970.793640041104</v>
       </c>
       <c r="D32" t="n">
-        <v>1403.038716578126</v>
+        <v>1599.049043827969</v>
       </c>
       <c r="E32" t="n">
-        <v>1054.03527684497</v>
+        <v>1184.708828344866</v>
       </c>
       <c r="F32" t="n">
-        <v>698.3416405486055</v>
+        <v>763.6784162985531</v>
       </c>
       <c r="G32" t="n">
-        <v>354.9501321913853</v>
+        <v>420.2869079413329</v>
       </c>
       <c r="H32" t="n">
         <v>109.3784105690509</v>
       </c>
       <c r="I32" t="n">
-        <v>88.36342363607164</v>
+        <v>88.36342363607162</v>
       </c>
       <c r="J32" t="n">
-        <v>103.415466430819</v>
+        <v>342.5488951038259</v>
       </c>
       <c r="K32" t="n">
-        <v>641.5749675398586</v>
+        <v>880.7083962128654</v>
       </c>
       <c r="L32" t="n">
-        <v>1354.166367352097</v>
+        <v>1593.299796025103</v>
       </c>
       <c r="M32" t="n">
-        <v>2130.48495834385</v>
+        <v>2369.618387016857</v>
       </c>
       <c r="N32" t="n">
-        <v>2883.665974982468</v>
+        <v>3122.799403655476</v>
       </c>
       <c r="O32" t="n">
-        <v>3527.296831399573</v>
+        <v>3766.43026007258</v>
       </c>
       <c r="P32" t="n">
-        <v>4056.453529318725</v>
+        <v>4295.586957991732</v>
       </c>
       <c r="Q32" t="n">
-        <v>4377.614536114017</v>
+        <v>4377.614536114016</v>
       </c>
       <c r="R32" t="n">
-        <v>4418.171181803582</v>
+        <v>4418.171181803581</v>
       </c>
       <c r="S32" t="n">
-        <v>4282.890106597682</v>
+        <v>4348.22688234763</v>
       </c>
       <c r="T32" t="n">
-        <v>4126.020398294489</v>
+        <v>4191.357174044436</v>
       </c>
       <c r="U32" t="n">
-        <v>3934.296682303946</v>
+        <v>3999.633458053894</v>
       </c>
       <c r="V32" t="n">
-        <v>3617.178461334231</v>
+        <v>3715.132679140322</v>
       </c>
       <c r="W32" t="n">
-        <v>3233.418160469399</v>
+        <v>3331.372378275491</v>
       </c>
       <c r="X32" t="n">
-        <v>2832.774762638352</v>
+        <v>2996.065756194391</v>
       </c>
       <c r="Y32" t="n">
-        <v>2431.838089586442</v>
+        <v>2660.465858892429</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>179.8592279801154</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1120150158315</v>
+        <v>109.1120150158314</v>
       </c>
       <c r="I33" t="n">
-        <v>88.36342363607164</v>
+        <v>88.36342363607162</v>
       </c>
       <c r="J33" t="n">
-        <v>88.36342363607164</v>
+        <v>88.36342363607162</v>
       </c>
       <c r="K33" t="n">
-        <v>88.36342363607164</v>
+        <v>88.36342363607162</v>
       </c>
       <c r="L33" t="n">
-        <v>88.36342363607164</v>
+        <v>88.36342363607162</v>
       </c>
       <c r="M33" t="n">
         <v>931.3405043306383</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.998596442256</v>
+        <v>1430.895528940677</v>
       </c>
       <c r="O33" t="n">
         <v>2134.852619486572</v>
@@ -6832,43 +6832,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>720.3398436875747</v>
+        <v>720.3398436875751</v>
       </c>
       <c r="C34" t="n">
-        <v>614.5832469992388</v>
+        <v>614.5832469992392</v>
       </c>
       <c r="D34" t="n">
-        <v>520.4253780720965</v>
+        <v>520.4253780720969</v>
       </c>
       <c r="E34" t="n">
-        <v>424.8513386903635</v>
+        <v>424.8513386903639</v>
       </c>
       <c r="F34" t="n">
-        <v>325.5569885509024</v>
+        <v>325.5569885509026</v>
       </c>
       <c r="G34" t="n">
-        <v>223.6433732263934</v>
+        <v>223.6433732263936</v>
       </c>
       <c r="H34" t="n">
-        <v>139.3726937817978</v>
+        <v>139.3726937817979</v>
       </c>
       <c r="I34" t="n">
-        <v>88.36342363607164</v>
+        <v>88.36342363607162</v>
       </c>
       <c r="J34" t="n">
-        <v>166.4825469538059</v>
+        <v>166.4825469538058</v>
       </c>
       <c r="K34" t="n">
-        <v>385.0714485885676</v>
+        <v>385.0714485885674</v>
       </c>
       <c r="L34" t="n">
-        <v>709.0051227811518</v>
+        <v>709.0051227811516</v>
       </c>
       <c r="M34" t="n">
         <v>1062.305753134169</v>
       </c>
       <c r="N34" t="n">
-        <v>1407.181109440943</v>
+        <v>1407.181109440942</v>
       </c>
       <c r="O34" t="n">
         <v>1730.77829367994</v>
@@ -6877,31 +6877,31 @@
         <v>2000.490307842076</v>
       </c>
       <c r="Q34" t="n">
-        <v>2130.05491155711</v>
+        <v>2130.054911557111</v>
       </c>
       <c r="R34" t="n">
         <v>2110.118968982458</v>
       </c>
       <c r="S34" t="n">
-        <v>1989.063976612315</v>
+        <v>1989.063976612316</v>
       </c>
       <c r="T34" t="n">
-        <v>1814.852013338965</v>
+        <v>1814.852013338966</v>
       </c>
       <c r="U34" t="n">
         <v>1597.390641635037</v>
       </c>
       <c r="V34" t="n">
-        <v>1388.841672324506</v>
+        <v>1388.841672324507</v>
       </c>
       <c r="W34" t="n">
-        <v>1175.108783583328</v>
+        <v>1175.108783583329</v>
       </c>
       <c r="X34" t="n">
-        <v>1002.101697192959</v>
+        <v>1002.10169719296</v>
       </c>
       <c r="Y34" t="n">
-        <v>842.7027743316714</v>
+        <v>842.7027743316719</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2080.954409242188</v>
+        <v>2080.954409242187</v>
       </c>
       <c r="C35" t="n">
-        <v>1736.166594305406</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D35" t="n">
-        <v>1397.039440148414</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E35" t="n">
         <v>1048.036000415258</v>
       </c>
       <c r="F35" t="n">
-        <v>692.342364118893</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G35" t="n">
-        <v>348.9508557616728</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3791341393379</v>
+        <v>103.379134139338</v>
       </c>
       <c r="I35" t="n">
         <v>82.36414720635868</v>
@@ -6941,10 +6941,10 @@
         <v>874.7091197831526</v>
       </c>
       <c r="L35" t="n">
-        <v>1054.202545866449</v>
+        <v>1587.300519595391</v>
       </c>
       <c r="M35" t="n">
-        <v>1830.521136858203</v>
+        <v>2363.619110587144</v>
       </c>
       <c r="N35" t="n">
         <v>2583.702153496821</v>
@@ -6962,7 +6962,7 @@
         <v>4118.207360317934</v>
       </c>
       <c r="S35" t="n">
-        <v>4048.263060861982</v>
+        <v>4048.263060861983</v>
       </c>
       <c r="T35" t="n">
         <v>3891.393352558789</v>
@@ -6971,7 +6971,7 @@
         <v>3699.669636568247</v>
       </c>
       <c r="V35" t="n">
-        <v>3415.168857654676</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W35" t="n">
         <v>3096.745332539792</v>
@@ -6980,7 +6980,7 @@
         <v>2761.438710458692</v>
       </c>
       <c r="Y35" t="n">
-        <v>2425.83881315673</v>
+        <v>2425.838813156729</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7020,13 @@
         <v>82.36414720635868</v>
       </c>
       <c r="L36" t="n">
-        <v>412.2181702506741</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="M36" t="n">
-        <v>1255.195250945241</v>
+        <v>925.3412279009253</v>
       </c>
       <c r="N36" t="n">
-        <v>2128.853343056859</v>
+        <v>1424.896252510964</v>
       </c>
       <c r="O36" t="n">
         <v>2128.853343056859</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>714.3405672578623</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C37" t="n">
-        <v>608.5839705695264</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D37" t="n">
         <v>514.4261016423839</v>
@@ -7084,28 +7084,28 @@
         <v>319.5577121211898</v>
       </c>
       <c r="G37" t="n">
-        <v>217.6440967966806</v>
+        <v>217.6440967966807</v>
       </c>
       <c r="H37" t="n">
-        <v>133.3734173520849</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I37" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J37" t="n">
-        <v>160.4832705240929</v>
+        <v>160.4832705240928</v>
       </c>
       <c r="K37" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588544</v>
       </c>
       <c r="L37" t="n">
-        <v>703.0058463514388</v>
+        <v>703.0058463514385</v>
       </c>
       <c r="M37" t="n">
-        <v>1056.306476704456</v>
+        <v>1056.306476704455</v>
       </c>
       <c r="N37" t="n">
-        <v>1401.18183301123</v>
+        <v>1401.181833011229</v>
       </c>
       <c r="O37" t="n">
         <v>1724.779017250228</v>
@@ -7114,10 +7114,10 @@
         <v>1994.491031412364</v>
       </c>
       <c r="Q37" t="n">
-        <v>2124.055635127398</v>
+        <v>2124.055635127399</v>
       </c>
       <c r="R37" t="n">
-        <v>2104.119692552745</v>
+        <v>2104.119692552746</v>
       </c>
       <c r="S37" t="n">
         <v>1983.064700182603</v>
@@ -7126,7 +7126,7 @@
         <v>1808.852736909253</v>
       </c>
       <c r="U37" t="n">
-        <v>1591.391365205324</v>
+        <v>1591.391365205325</v>
       </c>
       <c r="V37" t="n">
         <v>1382.842395894794</v>
@@ -7151,19 +7151,19 @@
         <v>2080.954409242187</v>
       </c>
       <c r="C38" t="n">
-        <v>1736.166594305404</v>
+        <v>1736.166594305405</v>
       </c>
       <c r="D38" t="n">
         <v>1397.039440148413</v>
       </c>
       <c r="E38" t="n">
-        <v>1048.036000415257</v>
+        <v>1048.036000415258</v>
       </c>
       <c r="F38" t="n">
-        <v>692.3423641188924</v>
+        <v>692.3423641188926</v>
       </c>
       <c r="G38" t="n">
-        <v>348.9508557616723</v>
+        <v>348.9508557616724</v>
       </c>
       <c r="H38" t="n">
         <v>103.3791341393379</v>
@@ -7172,28 +7172,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J38" t="n">
-        <v>336.549618674113</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K38" t="n">
-        <v>382.1677917437758</v>
+        <v>341.6111460542108</v>
       </c>
       <c r="L38" t="n">
-        <v>1094.759191556014</v>
+        <v>1054.202545866449</v>
       </c>
       <c r="M38" t="n">
-        <v>1871.077782547768</v>
+        <v>1830.521136858203</v>
       </c>
       <c r="N38" t="n">
-        <v>2624.258799186386</v>
+        <v>2583.702153496821</v>
       </c>
       <c r="O38" t="n">
-        <v>3267.889655603491</v>
+        <v>3227.333009913926</v>
       </c>
       <c r="P38" t="n">
-        <v>3797.046353522642</v>
+        <v>3756.489707833077</v>
       </c>
       <c r="Q38" t="n">
-        <v>4118.207360317934</v>
+        <v>4077.650714628369</v>
       </c>
       <c r="R38" t="n">
         <v>4118.207360317934</v>
@@ -7205,16 +7205,16 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U38" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V38" t="n">
-        <v>3415.168857654674</v>
+        <v>3415.168857654675</v>
       </c>
       <c r="W38" t="n">
         <v>3096.745332539791</v>
       </c>
       <c r="X38" t="n">
-        <v>2761.438710458691</v>
+        <v>2761.438710458692</v>
       </c>
       <c r="Y38" t="n">
         <v>2425.838813156729</v>
@@ -7260,13 +7260,13 @@
         <v>1199.258575390946</v>
       </c>
       <c r="M39" t="n">
-        <v>1199.258575390946</v>
+        <v>2042.235656085512</v>
       </c>
       <c r="N39" t="n">
-        <v>1567.147450568329</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="O39" t="n">
-        <v>1567.147450568329</v>
+        <v>2128.853343056859</v>
       </c>
       <c r="P39" t="n">
         <v>2128.853343056859</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>714.3405672578618</v>
+        <v>714.3405672578616</v>
       </c>
       <c r="C40" t="n">
-        <v>608.5839705695259</v>
+        <v>608.5839705695257</v>
       </c>
       <c r="D40" t="n">
-        <v>514.4261016423836</v>
+        <v>514.4261016423834</v>
       </c>
       <c r="E40" t="n">
-        <v>418.8520622606507</v>
+        <v>418.8520622606504</v>
       </c>
       <c r="F40" t="n">
-        <v>319.5577121211896</v>
+        <v>319.5577121211893</v>
       </c>
       <c r="G40" t="n">
-        <v>217.6440967966806</v>
+        <v>217.6440967966803</v>
       </c>
       <c r="H40" t="n">
-        <v>133.3734173520849</v>
+        <v>133.3734173520847</v>
       </c>
       <c r="I40" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J40" t="n">
-        <v>160.4832705240929</v>
+        <v>160.483270524093</v>
       </c>
       <c r="K40" t="n">
-        <v>379.0721721588545</v>
+        <v>379.0721721588546</v>
       </c>
       <c r="L40" t="n">
         <v>703.0058463514388</v>
@@ -7354,7 +7354,7 @@
         <v>2124.055635127397</v>
       </c>
       <c r="R40" t="n">
-        <v>2104.119692552744</v>
+        <v>2104.119692552745</v>
       </c>
       <c r="S40" t="n">
         <v>1983.064700182602</v>
@@ -7372,10 +7372,10 @@
         <v>1169.109507153615</v>
       </c>
       <c r="X40" t="n">
-        <v>996.1024207632463</v>
+        <v>996.1024207632461</v>
       </c>
       <c r="Y40" t="n">
-        <v>836.7034979019586</v>
+        <v>836.7034979019584</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>1736.166594305405</v>
       </c>
       <c r="D41" t="n">
-        <v>1397.039440148414</v>
+        <v>1397.039440148413</v>
       </c>
       <c r="E41" t="n">
-        <v>1048.036000415258</v>
+        <v>1048.036000415257</v>
       </c>
       <c r="F41" t="n">
-        <v>692.342364118893</v>
+        <v>692.3423641188925</v>
       </c>
       <c r="G41" t="n">
-        <v>348.9508557616728</v>
+        <v>348.9508557616723</v>
       </c>
       <c r="H41" t="n">
         <v>103.3791341393379</v>
@@ -7488,28 +7488,28 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J42" t="n">
-        <v>275.1770047689919</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K42" t="n">
-        <v>730.9832610342906</v>
+        <v>538.1704034716574</v>
       </c>
       <c r="L42" t="n">
-        <v>1217.302985884345</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="M42" t="n">
-        <v>1217.302985884345</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="N42" t="n">
-        <v>1217.302985884345</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="O42" t="n">
-        <v>1217.302985884345</v>
+        <v>1187.743466521715</v>
       </c>
       <c r="P42" t="n">
-        <v>1779.008878372875</v>
+        <v>1749.449359010245</v>
       </c>
       <c r="Q42" t="n">
-        <v>2128.853343056859</v>
+        <v>2099.293823694229</v>
       </c>
       <c r="R42" t="n">
         <v>2128.853343056859</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>714.3405672578621</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C43" t="n">
         <v>608.5839705695262</v>
       </c>
       <c r="D43" t="n">
-        <v>514.4261016423839</v>
+        <v>514.4261016423837</v>
       </c>
       <c r="E43" t="n">
-        <v>418.8520622606509</v>
+        <v>418.8520622606508</v>
       </c>
       <c r="F43" t="n">
-        <v>319.5577121211898</v>
+        <v>319.5577121211896</v>
       </c>
       <c r="G43" t="n">
-        <v>217.6440967966808</v>
+        <v>217.6440967966806</v>
       </c>
       <c r="H43" t="n">
         <v>133.3734173520849</v>
@@ -7646,22 +7646,22 @@
         <v>82.36414720635868</v>
       </c>
       <c r="J44" t="n">
-        <v>336.549618674113</v>
+        <v>82.36414720635868</v>
       </c>
       <c r="K44" t="n">
-        <v>874.7091197831526</v>
+        <v>382.1677917437758</v>
       </c>
       <c r="L44" t="n">
-        <v>1587.300519595391</v>
+        <v>1094.759191556014</v>
       </c>
       <c r="M44" t="n">
-        <v>2363.619110587144</v>
+        <v>1871.077782547768</v>
       </c>
       <c r="N44" t="n">
-        <v>3116.800127225762</v>
+        <v>2624.258799186386</v>
       </c>
       <c r="O44" t="n">
-        <v>3760.430983642867</v>
+        <v>3267.889655603491</v>
       </c>
       <c r="P44" t="n">
         <v>3797.046353522642</v>
@@ -7679,7 +7679,7 @@
         <v>3891.393352558789</v>
       </c>
       <c r="U44" t="n">
-        <v>3699.669636568246</v>
+        <v>3699.669636568247</v>
       </c>
       <c r="V44" t="n">
         <v>3415.168857654675</v>
@@ -7688,7 +7688,7 @@
         <v>3096.745332539791</v>
       </c>
       <c r="X44" t="n">
-        <v>2761.438710458692</v>
+        <v>2761.438710458691</v>
       </c>
       <c r="Y44" t="n">
         <v>2425.838813156729</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>714.3405672578621</v>
+        <v>714.3405672578622</v>
       </c>
       <c r="C46" t="n">
-        <v>608.5839705695262</v>
+        <v>608.5839705695263</v>
       </c>
       <c r="D46" t="n">
-        <v>514.4261016423837</v>
+        <v>514.4261016423839</v>
       </c>
       <c r="E46" t="n">
-        <v>418.8520622606508</v>
+        <v>418.8520622606509</v>
       </c>
       <c r="F46" t="n">
-        <v>319.5577121211897</v>
+        <v>319.5577121211898</v>
       </c>
       <c r="G46" t="n">
         <v>217.6440967966807</v>
       </c>
       <c r="H46" t="n">
-        <v>133.3734173520849</v>
+        <v>133.373417352085</v>
       </c>
       <c r="I46" t="n">
         <v>82.36414720635868</v>
       </c>
       <c r="J46" t="n">
-        <v>160.4832705240928</v>
+        <v>160.4832705240929</v>
       </c>
       <c r="K46" t="n">
-        <v>379.0721721588544</v>
+        <v>379.0721721588546</v>
       </c>
       <c r="L46" t="n">
-        <v>703.0058463514385</v>
+        <v>703.0058463514388</v>
       </c>
       <c r="M46" t="n">
-        <v>1056.306476704455</v>
+        <v>1056.306476704456</v>
       </c>
       <c r="N46" t="n">
-        <v>1401.181833011229</v>
+        <v>1401.18183301123</v>
       </c>
       <c r="O46" t="n">
         <v>1724.779017250227</v>
@@ -7834,22 +7834,22 @@
         <v>1983.064700182603</v>
       </c>
       <c r="T46" t="n">
-        <v>1808.852736909252</v>
+        <v>1808.852736909253</v>
       </c>
       <c r="U46" t="n">
         <v>1591.391365205324</v>
       </c>
       <c r="V46" t="n">
-        <v>1382.842395894793</v>
+        <v>1382.842395894794</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.109507153615</v>
+        <v>1169.109507153616</v>
       </c>
       <c r="X46" t="n">
-        <v>996.1024207632463</v>
+        <v>996.1024207632466</v>
       </c>
       <c r="Y46" t="n">
-        <v>836.7034979019588</v>
+        <v>836.7034979019591</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
         <v>479.289169423434</v>
       </c>
       <c r="L2" t="n">
-        <v>469.8744291362853</v>
+        <v>485.6381778130617</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>483.0650705068362</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>483.342555376</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>483.8021430311011</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>207.6698339900124</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8055,10 +8055,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>430.2148138580559</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>446.2673035610659</v>
@@ -8076,7 +8076,7 @@
         <v>444.4124147530206</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>236.3211873938012</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>191.34998593779</v>
       </c>
       <c r="K5" t="n">
-        <v>550.1965343613532</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>556.5455427509809</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>553.9724354447554</v>
+        <v>553.9724354447553</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>554.2499203139191</v>
       </c>
       <c r="P5" t="n">
-        <v>211.6757578853664</v>
+        <v>554.7095079690201</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8298,7 +8298,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>517.1746684989851</v>
+        <v>382.2590955903372</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
@@ -8307,13 +8307,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>276.2141532468908</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>515.3197796909399</v>
+        <v>515.3197796909396</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8450,31 +8450,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N8" t="n">
-        <v>593.882383535937</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>203.4176284083942</v>
       </c>
       <c r="L9" t="n">
-        <v>557.0846165901669</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
@@ -8550,7 +8550,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>304.8737611291479</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8708,7 +8708,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>389.2360300813939</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8769,13 +8769,13 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>389.3004056737942</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>114.0659762175036</v>
       </c>
       <c r="N12" t="n">
         <v>935.6763147186165</v>
@@ -8927,7 +8927,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>607.5290136521735</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8942,7 +8942,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>628.1510783507341</v>
+        <v>602.9482466639938</v>
       </c>
       <c r="Q14" t="n">
         <v>414.4388617681339</v>
@@ -9003,7 +9003,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
         <v>55.82578278461539</v>
@@ -9015,7 +9015,7 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>263.9099299663047</v>
+        <v>841.9067396726144</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
@@ -9024,10 +9024,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>304.8737611291479</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>632.7318453389136</v>
@@ -9185,7 +9185,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>103.0756199053223</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,28 +9243,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>247.7181192045195</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>77.22687637146595</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>304.8737611291479</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9410,7 +9410,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N20" t="n">
-        <v>853.701196452193</v>
+        <v>828.4983647654527</v>
       </c>
       <c r="O20" t="n">
         <v>743.321953824879</v>
@@ -9480,22 +9480,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>429.1692081600166</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629451</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9641,7 +9641,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>790.071859115739</v>
       </c>
       <c r="M23" t="n">
         <v>877.4504173780091</v>
@@ -9656,7 +9656,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>389.2360300813939</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9714,31 +9714,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>531.174398074769</v>
+        <v>518.9382286752101</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,22 +9954,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>424.7983178153489</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>527.8697493391553</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10197,7 +10197,7 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N30" t="n">
         <v>935.6763147186165</v>
@@ -10206,7 +10206,7 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P30" t="n">
-        <v>527.8697493391553</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>88.52767496436591</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10367,7 +10367,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>172.8899439166111</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10437,10 +10437,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
         <v>54.25963500280375</v>
@@ -10589,13 +10589,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
-        <v>276.7918890560734</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M35" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>853.701196452193</v>
+        <v>315.2183947057874</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
@@ -10668,16 +10668,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>389.3004056737939</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533853</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>135.2153523698462</v>
+        <v>351.002045075088</v>
       </c>
       <c r="L38" t="n">
         <v>815.2746908024792</v>
@@ -10844,7 +10844,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,16 +10908,16 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>424.7983178153489</v>
+        <v>140.68600649612</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11136,13 +11136,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>547.3465691139345</v>
+        <v>712.2489309321195</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11160,7 +11160,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>391.9683538524263</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11312,7 +11312,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>130.6345853816668</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
         <v>414.4388617681339</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.8391198817651</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>8.730330811352786</v>
       </c>
       <c r="S13" t="n">
-        <v>153.3821556901393</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>240.0011928611237</v>
       </c>
       <c r="W13" t="n">
-        <v>168.3249768707367</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>204.8147287701639</v>
       </c>
       <c r="Y13" t="n">
         <v>191.3426468763734</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>154.6770145813544</v>
       </c>
       <c r="C16" t="n">
-        <v>138.2367439651511</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>39.37826647532001</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>64.83718705325791</v>
       </c>
       <c r="F16" t="n">
-        <v>131.8391198817651</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>134.4321924149625</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>53.27429639260482</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.3426468763734</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>126.7540034815695</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>128.1560122316141</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F19" t="n">
-        <v>131.839119881765</v>
+        <v>131.8391198817651</v>
       </c>
       <c r="G19" t="n">
-        <v>134.4321924149624</v>
+        <v>134.4321924149625</v>
       </c>
       <c r="H19" t="n">
-        <v>116.9656858938483</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>84.03689068796751</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>8.981213725489965</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>77.38200930864079</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>204.8147287701639</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>191.3426468763734</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.6770145813543</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.236743965151</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>128.1560122316141</v>
+        <v>128.1560122316142</v>
       </c>
       <c r="F22" t="n">
-        <v>131.839119881765</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>109.3458361599107</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>84.03689068796751</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>53.27429639260475</v>
+        <v>53.2742963926048</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>153.3821556901393</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>206.0075568843154</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>240.0011928611237</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>18.74469984057103</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>154.6770145813544</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.2367439651511</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>128.1560122316141</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>131.839119881765</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>134.4321924149624</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>116.9656858938483</v>
+        <v>116.9656858938484</v>
       </c>
       <c r="I25" t="n">
-        <v>84.03689068796751</v>
+        <v>84.03689068796756</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>53.27429639260475</v>
+        <v>53.2742963926048</v>
       </c>
       <c r="S25" t="n">
-        <v>150.8617163976054</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>61.032635503069</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>191.3426468763734</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>75.03383798090783</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.6836437103791</v>
+        <v>58.1449077676704</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24649,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G31" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>30.1026840923322</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>99.77783963110672</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710251.0813877033</v>
+        <v>710251.0813877031</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>710251.0813877033</v>
+        <v>710251.0813877032</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>710251.0813877032</v>
+        <v>710251.0813877033</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>709264.7734131028</v>
+        <v>709264.7734131027</v>
       </c>
     </row>
     <row r="12">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>423494.2218843882</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="C2" t="n">
-        <v>423494.221884388</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="D2" t="n">
         <v>423494.2218843881</v>
@@ -26323,37 +26323,37 @@
         <v>411020.9936275426</v>
       </c>
       <c r="F2" t="n">
-        <v>411020.9936275428</v>
+        <v>411020.9936275427</v>
       </c>
       <c r="G2" t="n">
         <v>411020.9936275427</v>
       </c>
       <c r="H2" t="n">
-        <v>411020.9936275426</v>
+        <v>411020.9936275428</v>
       </c>
       <c r="I2" t="n">
-        <v>411020.9936275425</v>
+        <v>411020.9936275427</v>
       </c>
       <c r="J2" t="n">
-        <v>410408.5390400178</v>
+        <v>410408.5390400179</v>
       </c>
       <c r="K2" t="n">
-        <v>410408.5390400179</v>
+        <v>410408.5390400177</v>
       </c>
       <c r="L2" t="n">
-        <v>423494.2218843879</v>
+        <v>423494.2218843877</v>
       </c>
       <c r="M2" t="n">
-        <v>423494.2218843886</v>
+        <v>423494.2218843888</v>
       </c>
       <c r="N2" t="n">
-        <v>423494.2218843885</v>
+        <v>423494.2218843881</v>
       </c>
       <c r="O2" t="n">
-        <v>423494.2218843885</v>
+        <v>423494.2218843884</v>
       </c>
       <c r="P2" t="n">
-        <v>423494.2218843888</v>
+        <v>423494.2218843887</v>
       </c>
     </row>
     <row r="3">
@@ -26366,10 +26366,10 @@
         <v>130749.1700082319</v>
       </c>
       <c r="C3" t="n">
-        <v>22908.09103294589</v>
+        <v>22908.09103294585</v>
       </c>
       <c r="D3" t="n">
-        <v>18949.49411956534</v>
+        <v>18949.49411956537</v>
       </c>
       <c r="E3" t="n">
         <v>215145.8694717669</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>127345.6515709613</v>
+        <v>127345.6515709614</v>
       </c>
       <c r="K3" t="n">
         <v>18249.28669934237</v>
       </c>
       <c r="L3" t="n">
-        <v>28147.57301288814</v>
+        <v>28147.57301288806</v>
       </c>
       <c r="M3" t="n">
         <v>140084.2207840744</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>23599.15338107032</v>
+        <v>23599.1533810704</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198541.3047050106</v>
+        <v>202476.7876805906</v>
       </c>
       <c r="C4" t="n">
-        <v>180267.0378952235</v>
+        <v>184620.4474538986</v>
       </c>
       <c r="D4" t="n">
-        <v>164545.2172042716</v>
+        <v>169258.1797272211</v>
       </c>
       <c r="E4" t="n">
-        <v>46536.76631153705</v>
+        <v>53699.81593211845</v>
       </c>
       <c r="F4" t="n">
-        <v>46536.76631153705</v>
+        <v>53699.81593211843</v>
       </c>
       <c r="G4" t="n">
-        <v>46536.7663115371</v>
+        <v>53699.81593211843</v>
       </c>
       <c r="H4" t="n">
-        <v>46536.7663115371</v>
+        <v>53699.81593211845</v>
       </c>
       <c r="I4" t="n">
-        <v>46536.7663115371</v>
+        <v>53699.81593211845</v>
       </c>
       <c r="J4" t="n">
-        <v>44924.61533190224</v>
+        <v>52112.1420745427</v>
       </c>
       <c r="K4" t="n">
-        <v>44924.61533190223</v>
+        <v>52112.14207454276</v>
       </c>
       <c r="L4" t="n">
-        <v>66759.90183381326</v>
+        <v>73712.83500304187</v>
       </c>
       <c r="M4" t="n">
-        <v>79369.77558779262</v>
+        <v>86034.32501467387</v>
       </c>
       <c r="N4" t="n">
-        <v>79369.77558779264</v>
+        <v>86034.3250146739</v>
       </c>
       <c r="O4" t="n">
-        <v>79369.77558779261</v>
+        <v>86034.3250146739</v>
       </c>
       <c r="P4" t="n">
-        <v>79369.77558779262</v>
+        <v>86034.32501467387</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>57348.88900881319</v>
       </c>
       <c r="C5" t="n">
-        <v>61660.05679703867</v>
+        <v>61660.05679703866</v>
       </c>
       <c r="D5" t="n">
         <v>65369.06507849755</v>
@@ -26482,22 +26482,22 @@
         <v>73096.60560443853</v>
       </c>
       <c r="G5" t="n">
-        <v>73096.60560443855</v>
+        <v>73096.60560443853</v>
       </c>
       <c r="H5" t="n">
-        <v>73096.60560443855</v>
+        <v>73096.60560443853</v>
       </c>
       <c r="I5" t="n">
-        <v>73096.60560443855</v>
+        <v>73096.60560443853</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="L5" t="n">
-        <v>72594.07138993156</v>
+        <v>72594.07138993155</v>
       </c>
       <c r="M5" t="n">
         <v>68034.62130334972</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36854.8581623325</v>
+        <v>32919.37518675241</v>
       </c>
       <c r="C6" t="n">
-        <v>158659.0361591799</v>
+        <v>154305.626600505</v>
       </c>
       <c r="D6" t="n">
-        <v>174630.4454820536</v>
+        <v>169917.4829591041</v>
       </c>
       <c r="E6" t="n">
-        <v>76241.75223980019</v>
+        <v>69030.72866438467</v>
       </c>
       <c r="F6" t="n">
-        <v>291387.6217115672</v>
+        <v>284176.5981361517</v>
       </c>
       <c r="G6" t="n">
-        <v>291387.621711567</v>
+        <v>284176.5981361517</v>
       </c>
       <c r="H6" t="n">
-        <v>291387.621711567</v>
+        <v>284176.5981361518</v>
       </c>
       <c r="I6" t="n">
-        <v>291387.6217115669</v>
+        <v>284176.5981361517</v>
       </c>
       <c r="J6" t="n">
-        <v>164793.1153602894</v>
+        <v>157555.2590682476</v>
       </c>
       <c r="K6" t="n">
-        <v>273889.4802319084</v>
+        <v>266651.6239398663</v>
       </c>
       <c r="L6" t="n">
-        <v>255992.675647755</v>
+        <v>249039.7424785261</v>
       </c>
       <c r="M6" t="n">
-        <v>136005.6042091718</v>
+        <v>129341.0547822908</v>
       </c>
       <c r="N6" t="n">
-        <v>276089.8249932462</v>
+        <v>269425.2755663644</v>
       </c>
       <c r="O6" t="n">
-        <v>252490.6716121759</v>
+        <v>245826.1221852944</v>
       </c>
       <c r="P6" t="n">
-        <v>276089.8249932464</v>
+        <v>269425.275566365</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="F2" t="n">
         <v>31.14569474874953</v>
       </c>
       <c r="G2" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="H2" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="I2" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="J2" t="n">
         <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L2" t="n">
         <v>64.68340799244812</v>
       </c>
       <c r="M2" t="n">
+        <v>64.68340799244808</v>
+      </c>
+      <c r="N2" t="n">
         <v>64.68340799244812</v>
-      </c>
-      <c r="N2" t="n">
-        <v>64.68340799244815</v>
       </c>
       <c r="O2" t="n">
         <v>64.68340799244812</v>
       </c>
       <c r="P2" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
     </row>
     <row r="3">
@@ -26790,7 +26790,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>461.0601446881361</v>
+        <v>461.0601446881359</v>
       </c>
       <c r="D4" t="n">
         <v>522.0635703700256</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633793</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>35.18446626611018</v>
+        <v>35.18446626611007</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.4989417263379</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27012,10 +27012,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="C4" t="n">
-        <v>70.90736493791914</v>
+        <v>70.90736493791904</v>
       </c>
       <c r="D4" t="n">
-        <v>61.00342568188952</v>
+        <v>61.00342568188962</v>
       </c>
       <c r="E4" t="n">
         <v>637.1176499030981</v>
@@ -27036,7 +27036,7 @@
         <v>396.5177806098782</v>
       </c>
       <c r="K4" t="n">
-        <v>70.90736493791914</v>
+        <v>70.90736493791904</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633793</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27258,10 +27258,10 @@
         <v>390.1527797502169</v>
       </c>
       <c r="K4" t="n">
-        <v>70.90736493791914</v>
+        <v>70.90736493791904</v>
       </c>
       <c r="L4" t="n">
-        <v>61.00342568188952</v>
+        <v>61.00342568188962</v>
       </c>
       <c r="M4" t="n">
         <v>637.1176499030981</v>
@@ -27382,7 +27382,7 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>213.0401126336988</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27394,10 +27394,10 @@
         <v>14.48822151587922</v>
       </c>
       <c r="H2" t="n">
-        <v>62.16942374048131</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
@@ -27439,13 +27439,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>6.774526571173908</v>
       </c>
     </row>
     <row r="3">
@@ -27455,22 +27455,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>46.95310848145164</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27521,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>147.8112945217226</v>
+        <v>174.5627220424961</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27543,19 +27543,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>23.12472639190884</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27594,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.893130557884291</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -27667,16 +27667,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>1.183612455753405</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>142.6594265248191</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138.9000023092308</v>
+        <v>8.953908376774109</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>97.84209207704578</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>126.9450269688244</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>395.0452260613735</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>308.7230012821693</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="C11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="D11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="E11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="F11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="G11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="H11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="I11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="T11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="U11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="V11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="W11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="X11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="Y11" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="C13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="D13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="E13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="F13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="G13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="H13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="I13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="J13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="K13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="L13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="M13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="N13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="O13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="P13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="Q13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="R13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="S13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="T13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="U13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="V13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="W13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="X13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="Y13" t="n">
-        <v>31.14569474874953</v>
+        <v>31.14569474874955</v>
       </c>
     </row>
     <row r="14">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="C17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="D17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="E17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="F17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="G17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="H17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="I17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="T17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="U17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="V17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="W17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="X17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="C19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="D19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="E19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="F19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="G19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="H19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="I19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="J19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="K19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="L19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="M19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="N19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="O19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="P19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="R19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="S19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="T19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="U19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="V19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="W19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="X19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874953</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="C20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="D20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="E20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="F20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="G20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="H20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="I20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="T20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="U20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="V20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="W20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="X20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="Y20" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="C22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="D22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="E22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="F22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="G22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="H22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="I22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="J22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="K22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="L22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="M22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="N22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="O22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="P22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="Q22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="R22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="S22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="T22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="U22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="V22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="W22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="X22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="Y22" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="C23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="D23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="E23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="F23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="G23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="H23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="I23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="T23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="U23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="V23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="W23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="X23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="C25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="D25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="E25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="F25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="G25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="H25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="I25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="J25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="K25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="L25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="M25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="N25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="O25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="P25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="R25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="S25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="T25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="U25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="V25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="W25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="X25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.14569474874959</v>
+        <v>31.14569474874955</v>
       </c>
     </row>
     <row r="26">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="32">
@@ -29752,19 +29752,19 @@
         <v>64.68340799244812</v>
       </c>
       <c r="D32" t="n">
-        <v>64.68340799244812</v>
+        <v>32.39214035686609</v>
       </c>
       <c r="E32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>64.68340799244812</v>
       </c>
       <c r="H32" t="n">
-        <v>64.68340799244812</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>64.68340799244812</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T32" t="n">
         <v>64.68340799244812</v>
@@ -29806,16 +29806,16 @@
         <v>64.68340799244812</v>
       </c>
       <c r="V32" t="n">
-        <v>32.39214035686547</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="33">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="C35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="D35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="E35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="F35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="I35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="T35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="U35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="V35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="W35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="X35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Y35" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="C37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="D37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="E37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="F37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="G37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="H37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="I37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="J37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="K37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="L37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="M37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="N37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="O37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244891</v>
       </c>
       <c r="P37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Q37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="R37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="S37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="T37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="U37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="V37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="W37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="X37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
       <c r="Y37" t="n">
-        <v>64.68340799244812</v>
+        <v>64.68340799244808</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244828</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="C40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="D40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="E40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="F40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="G40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="H40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="I40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="J40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="K40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="L40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="M40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="N40" t="n">
-        <v>64.68340799244726</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="O40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="P40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="R40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="S40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="T40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="U40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="V40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="W40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="X40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.68340799244815</v>
+        <v>64.68340799244812</v>
       </c>
     </row>
     <row r="41">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="C44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="E44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="F44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="G44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="V44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="W44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="X44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Y44" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="C46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="D46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="E46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="F46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="G46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="H46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="J46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="K46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="L46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="M46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="N46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="O46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="P46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Q46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="R46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="S46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="T46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="U46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="V46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="W46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="X46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.68340799244811</v>
+        <v>64.6834079924481</v>
       </c>
     </row>
   </sheetData>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
         <v>390.1527797502169</v>
       </c>
       <c r="L2" t="n">
-        <v>374.3890310734405</v>
+        <v>390.1527797502169</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>390.1527797502169</v>
       </c>
-      <c r="O2" t="n">
-        <v>390.1527797502169</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>117.6360295908603</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>374.3890310734405</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>390.1527797502169</v>
@@ -34796,7 +34796,7 @@
         <v>390.1527797502169</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>179.6285688889625</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>118.0263946044821</v>
       </c>
       <c r="K5" t="n">
-        <v>461.0601446881361</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.0601446881361</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.0601446881361</v>
+        <v>461.0601446881359</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>461.0601446881359</v>
       </c>
       <c r="P5" t="n">
-        <v>118.0263946044823</v>
+        <v>461.0601446881359</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35018,7 +35018,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>461.0601446881361</v>
+        <v>326.1445717794881</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>218.4626742468908</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.0601446881361</v>
+        <v>461.0601446881359</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N8" t="n">
-        <v>500.9700927793177</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>147.5918456237788</v>
       </c>
       <c r="L9" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>231.55016979584</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35428,7 +35428,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>299.2022256822418</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>333.1858818629451</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>56.50169247908619</v>
       </c>
       <c r="N12" t="n">
         <v>882.4829213248665</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.37049212775005</v>
+        <v>45.37049212775008</v>
       </c>
       <c r="K13" t="n">
-        <v>187.2591570944444</v>
+        <v>187.2591570944445</v>
       </c>
       <c r="L13" t="n">
-        <v>293.6680182639622</v>
+        <v>293.6680182639623</v>
       </c>
       <c r="M13" t="n">
         <v>323.3316103452074</v>
@@ -35580,13 +35580,13 @@
         <v>314.8212325207195</v>
       </c>
       <c r="O13" t="n">
-        <v>293.3281294219557</v>
+        <v>293.3281294219558</v>
       </c>
       <c r="P13" t="n">
-        <v>238.8986646978529</v>
+        <v>238.898664697853</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.33562384219482</v>
+        <v>97.33562384219483</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>518.3926239789564</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35662,7 +35662,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>534.50171506985</v>
+        <v>509.2988833831097</v>
       </c>
       <c r="Q14" t="n">
         <v>324.4050573689818</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>210.7165365725547</v>
+        <v>788.7133462788645</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
@@ -35744,10 +35744,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.37049212775006</v>
+        <v>45.37049212775005</v>
       </c>
       <c r="K16" t="n">
         <v>187.2591570944444</v>
@@ -35820,7 +35820,7 @@
         <v>293.3281294219557</v>
       </c>
       <c r="P16" t="n">
-        <v>238.898664697853</v>
+        <v>238.8986646978529</v>
       </c>
       <c r="Q16" t="n">
         <v>97.33562384219482</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>231.55016979584</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
         <v>543.5954556656965</v>
@@ -35905,7 +35905,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>15.76347709059877</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>194.5247258107695</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>18.22667726606054</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.37049212775013</v>
+        <v>45.37049212775005</v>
       </c>
       <c r="K19" t="n">
-        <v>187.2591570944445</v>
+        <v>187.2591570944444</v>
       </c>
       <c r="L19" t="n">
-        <v>293.6680182639623</v>
+        <v>293.6680182639622</v>
       </c>
       <c r="M19" t="n">
         <v>323.3316103452074</v>
@@ -36054,13 +36054,13 @@
         <v>314.8212325207195</v>
       </c>
       <c r="O19" t="n">
-        <v>293.3281294219558</v>
+        <v>293.3281294219557</v>
       </c>
       <c r="P19" t="n">
-        <v>238.898664697853</v>
+        <v>238.8986646978529</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.33562384219488</v>
+        <v>97.33562384219482</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>231.55016979584</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36130,7 +36130,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>735.5860740088334</v>
       </c>
       <c r="O20" t="n">
         <v>650.1321781990958</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>371.6049244215992</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629451</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.37049212775013</v>
+        <v>45.37049212775008</v>
       </c>
       <c r="K22" t="n">
         <v>187.2591570944445</v>
@@ -36297,7 +36297,7 @@
         <v>238.898664697853</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.33562384219488</v>
+        <v>97.33562384219483</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>694.5864610528942</v>
       </c>
       <c r="M23" t="n">
         <v>784.1601929209636</v>
@@ -36376,7 +36376,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q23" t="n">
-        <v>299.2022256822418</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363516</v>
+        <v>461.3739449367927</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.37049212775013</v>
+        <v>45.37049212775008</v>
       </c>
       <c r="K25" t="n">
         <v>187.2591570944445</v>
@@ -36534,7 +36534,7 @@
         <v>238.898664697853</v>
       </c>
       <c r="Q25" t="n">
-        <v>97.33562384219488</v>
+        <v>97.33562384219483</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>473.6101143363516</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36917,7 +36917,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N30" t="n">
         <v>882.4829213248665</v>
@@ -36926,7 +36926,7 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P30" t="n">
-        <v>473.6101143363516</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K31" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L31" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M31" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N31" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>15.20408363105797</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37087,7 +37087,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>82.85613951745906</v>
       </c>
       <c r="R32" t="n">
         <v>40.9663087773382</v>
@@ -37157,10 +37157,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37309,13 +37309,13 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
-        <v>181.3064909932286</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M35" t="n">
         <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
-        <v>760.7889056955737</v>
+        <v>222.306103949168</v>
       </c>
       <c r="O35" t="n">
         <v>650.1321781990958</v>
@@ -37388,16 +37388,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596354</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144862</v>
       </c>
       <c r="K37" t="n">
         <v>220.796870338143</v>
       </c>
       <c r="L37" t="n">
-        <v>327.2057315076608</v>
+        <v>327.2057315076607</v>
       </c>
       <c r="M37" t="n">
-        <v>356.869323588906</v>
+        <v>356.8693235889059</v>
       </c>
       <c r="N37" t="n">
         <v>348.3589457644181</v>
       </c>
       <c r="O37" t="n">
-        <v>326.8658426656543</v>
+        <v>326.8658426656551</v>
       </c>
       <c r="P37" t="n">
         <v>272.4363779415515</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>46.07896269662905</v>
+        <v>261.8656554018709</v>
       </c>
       <c r="L38" t="n">
         <v>719.7892927396343</v>
@@ -37564,7 +37564,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,16 +37628,16 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>371.6049244215989</v>
+        <v>87.49261310237</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.90820537144867</v>
+        <v>78.90820537144864</v>
       </c>
       <c r="K40" t="n">
-        <v>220.7968703381431</v>
+        <v>220.796870338143</v>
       </c>
       <c r="L40" t="n">
-        <v>327.2057315076609</v>
+        <v>327.2057315076608</v>
       </c>
       <c r="M40" t="n">
         <v>356.869323588906</v>
       </c>
       <c r="N40" t="n">
-        <v>348.3589457644172</v>
+        <v>348.3589457644181</v>
       </c>
       <c r="O40" t="n">
-        <v>326.8658426656544</v>
+        <v>326.8658426656543</v>
       </c>
       <c r="P40" t="n">
         <v>272.4363779415515</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>491.2320453030854</v>
+        <v>656.1344071212704</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>302.8319641792092</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38032,7 +38032,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>36.98522210078261</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
         <v>324.4050573689818</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.90820537144864</v>
+        <v>78.90820537144862</v>
       </c>
       <c r="K46" t="n">
         <v>220.796870338143</v>
